--- a/Datasets/erreurs_999.xlsx
+++ b/Datasets/erreurs_999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5273"/>
+  <dimension ref="A1:D5260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86855,11 +86855,11 @@
         <v>4800</v>
       </c>
       <c r="B4802" t="n">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="C4802" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4802" t="inlineStr">
@@ -86877,7 +86877,7 @@
       </c>
       <c r="C4803" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4803" t="inlineStr">
@@ -86891,7 +86891,7 @@
         <v>4802</v>
       </c>
       <c r="B4804" t="n">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="C4804" t="inlineStr">
         <is>
@@ -86913,7 +86913,7 @@
       </c>
       <c r="C4805" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4805" t="inlineStr">
@@ -86927,11 +86927,11 @@
         <v>4804</v>
       </c>
       <c r="B4806" t="n">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="C4806" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4806" t="inlineStr">
@@ -86949,7 +86949,7 @@
       </c>
       <c r="C4807" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4807" t="inlineStr">
@@ -86963,7 +86963,7 @@
         <v>4806</v>
       </c>
       <c r="B4808" t="n">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="C4808" t="inlineStr">
         <is>
@@ -86981,7 +86981,7 @@
         <v>4807</v>
       </c>
       <c r="B4809" t="n">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="C4809" t="inlineStr">
         <is>
@@ -86999,7 +86999,7 @@
         <v>4808</v>
       </c>
       <c r="B4810" t="n">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="C4810" t="inlineStr">
         <is>
@@ -87017,7 +87017,7 @@
         <v>4809</v>
       </c>
       <c r="B4811" t="n">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="C4811" t="inlineStr">
         <is>
@@ -87035,7 +87035,7 @@
         <v>4810</v>
       </c>
       <c r="B4812" t="n">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="C4812" t="inlineStr">
         <is>
@@ -87053,7 +87053,7 @@
         <v>4811</v>
       </c>
       <c r="B4813" t="n">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="C4813" t="inlineStr">
         <is>
@@ -87071,7 +87071,7 @@
         <v>4812</v>
       </c>
       <c r="B4814" t="n">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="C4814" t="inlineStr">
         <is>
@@ -87089,7 +87089,7 @@
         <v>4813</v>
       </c>
       <c r="B4815" t="n">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="C4815" t="inlineStr">
         <is>
@@ -87107,7 +87107,7 @@
         <v>4814</v>
       </c>
       <c r="B4816" t="n">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="C4816" t="inlineStr">
         <is>
@@ -87125,7 +87125,7 @@
         <v>4815</v>
       </c>
       <c r="B4817" t="n">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="C4817" t="inlineStr">
         <is>
@@ -87143,7 +87143,7 @@
         <v>4816</v>
       </c>
       <c r="B4818" t="n">
-        <v>3044</v>
+        <v>3047</v>
       </c>
       <c r="C4818" t="inlineStr">
         <is>
@@ -87161,11 +87161,11 @@
         <v>4817</v>
       </c>
       <c r="B4819" t="n">
-        <v>3046</v>
+        <v>3050</v>
       </c>
       <c r="C4819" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4819" t="inlineStr">
@@ -87179,7 +87179,7 @@
         <v>4818</v>
       </c>
       <c r="B4820" t="n">
-        <v>3047</v>
+        <v>3052</v>
       </c>
       <c r="C4820" t="inlineStr">
         <is>
@@ -87197,7 +87197,7 @@
         <v>4819</v>
       </c>
       <c r="B4821" t="n">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="C4821" t="inlineStr">
         <is>
@@ -87215,7 +87215,7 @@
         <v>4820</v>
       </c>
       <c r="B4822" t="n">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="C4822" t="inlineStr">
         <is>
@@ -87233,7 +87233,7 @@
         <v>4821</v>
       </c>
       <c r="B4823" t="n">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="C4823" t="inlineStr">
         <is>
@@ -87251,11 +87251,11 @@
         <v>4822</v>
       </c>
       <c r="B4824" t="n">
-        <v>3054</v>
+        <v>3057</v>
       </c>
       <c r="C4824" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D4824" t="inlineStr">
@@ -87269,11 +87269,11 @@
         <v>4823</v>
       </c>
       <c r="B4825" t="n">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="C4825" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4825" t="inlineStr">
@@ -87291,7 +87291,7 @@
       </c>
       <c r="C4826" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4826" t="inlineStr">
@@ -87305,7 +87305,7 @@
         <v>4825</v>
       </c>
       <c r="B4827" t="n">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="C4827" t="inlineStr">
         <is>
@@ -87323,7 +87323,7 @@
         <v>4826</v>
       </c>
       <c r="B4828" t="n">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="C4828" t="inlineStr">
         <is>
@@ -87341,11 +87341,11 @@
         <v>4827</v>
       </c>
       <c r="B4829" t="n">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="C4829" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4829" t="inlineStr">
@@ -87359,11 +87359,11 @@
         <v>4828</v>
       </c>
       <c r="B4830" t="n">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="C4830" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4830" t="inlineStr">
@@ -87377,11 +87377,11 @@
         <v>4829</v>
       </c>
       <c r="B4831" t="n">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="C4831" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4831" t="inlineStr">
@@ -87395,11 +87395,11 @@
         <v>4830</v>
       </c>
       <c r="B4832" t="n">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="C4832" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4832" t="inlineStr">
@@ -87413,11 +87413,11 @@
         <v>4831</v>
       </c>
       <c r="B4833" t="n">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="C4833" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4833" t="inlineStr">
@@ -87431,7 +87431,7 @@
         <v>4832</v>
       </c>
       <c r="B4834" t="n">
-        <v>3063</v>
+        <v>3065</v>
       </c>
       <c r="C4834" t="inlineStr">
         <is>
@@ -87449,7 +87449,7 @@
         <v>4833</v>
       </c>
       <c r="B4835" t="n">
-        <v>3064</v>
+        <v>3070</v>
       </c>
       <c r="C4835" t="inlineStr">
         <is>
@@ -87467,11 +87467,11 @@
         <v>4834</v>
       </c>
       <c r="B4836" t="n">
-        <v>3065</v>
+        <v>3070</v>
       </c>
       <c r="C4836" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D4836" t="inlineStr">
@@ -87485,11 +87485,11 @@
         <v>4835</v>
       </c>
       <c r="B4837" t="n">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="C4837" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4837" t="inlineStr">
@@ -87503,7 +87503,7 @@
         <v>4836</v>
       </c>
       <c r="B4838" t="n">
-        <v>3070</v>
+        <v>3072</v>
       </c>
       <c r="C4838" t="inlineStr">
         <is>
@@ -87521,11 +87521,11 @@
         <v>4837</v>
       </c>
       <c r="B4839" t="n">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="C4839" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4839" t="inlineStr">
@@ -87539,7 +87539,7 @@
         <v>4838</v>
       </c>
       <c r="B4840" t="n">
-        <v>3071</v>
+        <v>3075</v>
       </c>
       <c r="C4840" t="inlineStr">
         <is>
@@ -87557,7 +87557,7 @@
         <v>4839</v>
       </c>
       <c r="B4841" t="n">
-        <v>3072</v>
+        <v>3076</v>
       </c>
       <c r="C4841" t="inlineStr">
         <is>
@@ -87575,7 +87575,7 @@
         <v>4840</v>
       </c>
       <c r="B4842" t="n">
-        <v>3074</v>
+        <v>3077</v>
       </c>
       <c r="C4842" t="inlineStr">
         <is>
@@ -87593,11 +87593,11 @@
         <v>4841</v>
       </c>
       <c r="B4843" t="n">
-        <v>3075</v>
+        <v>3077</v>
       </c>
       <c r="C4843" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4843" t="inlineStr">
@@ -87611,7 +87611,7 @@
         <v>4842</v>
       </c>
       <c r="B4844" t="n">
-        <v>3076</v>
+        <v>3078</v>
       </c>
       <c r="C4844" t="inlineStr">
         <is>
@@ -87629,7 +87629,7 @@
         <v>4843</v>
       </c>
       <c r="B4845" t="n">
-        <v>3077</v>
+        <v>3079</v>
       </c>
       <c r="C4845" t="inlineStr">
         <is>
@@ -87647,11 +87647,11 @@
         <v>4844</v>
       </c>
       <c r="B4846" t="n">
-        <v>3077</v>
+        <v>3081</v>
       </c>
       <c r="C4846" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4846" t="inlineStr">
@@ -87665,7 +87665,7 @@
         <v>4845</v>
       </c>
       <c r="B4847" t="n">
-        <v>3078</v>
+        <v>3082</v>
       </c>
       <c r="C4847" t="inlineStr">
         <is>
@@ -87683,7 +87683,7 @@
         <v>4846</v>
       </c>
       <c r="B4848" t="n">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="C4848" t="inlineStr">
         <is>
@@ -87701,11 +87701,11 @@
         <v>4847</v>
       </c>
       <c r="B4849" t="n">
-        <v>3081</v>
+        <v>3084</v>
       </c>
       <c r="C4849" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4849" t="inlineStr">
@@ -87719,7 +87719,7 @@
         <v>4848</v>
       </c>
       <c r="B4850" t="n">
-        <v>3082</v>
+        <v>3084</v>
       </c>
       <c r="C4850" t="inlineStr">
         <is>
@@ -87737,7 +87737,7 @@
         <v>4849</v>
       </c>
       <c r="B4851" t="n">
-        <v>3083</v>
+        <v>3086</v>
       </c>
       <c r="C4851" t="inlineStr">
         <is>
@@ -87755,11 +87755,11 @@
         <v>4850</v>
       </c>
       <c r="B4852" t="n">
-        <v>3084</v>
+        <v>3087</v>
       </c>
       <c r="C4852" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4852" t="inlineStr">
@@ -87773,11 +87773,11 @@
         <v>4851</v>
       </c>
       <c r="B4853" t="n">
-        <v>3084</v>
+        <v>3089</v>
       </c>
       <c r="C4853" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4853" t="inlineStr">
@@ -87791,7 +87791,7 @@
         <v>4852</v>
       </c>
       <c r="B4854" t="n">
-        <v>3086</v>
+        <v>3089</v>
       </c>
       <c r="C4854" t="inlineStr">
         <is>
@@ -87809,11 +87809,11 @@
         <v>4853</v>
       </c>
       <c r="B4855" t="n">
-        <v>3087</v>
+        <v>3091</v>
       </c>
       <c r="C4855" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4855" t="inlineStr">
@@ -87827,11 +87827,11 @@
         <v>4854</v>
       </c>
       <c r="B4856" t="n">
-        <v>3089</v>
+        <v>3092</v>
       </c>
       <c r="C4856" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4856" t="inlineStr">
@@ -87845,11 +87845,11 @@
         <v>4855</v>
       </c>
       <c r="B4857" t="n">
-        <v>3089</v>
+        <v>3092</v>
       </c>
       <c r="C4857" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D4857" t="inlineStr">
@@ -87863,7 +87863,7 @@
         <v>4856</v>
       </c>
       <c r="B4858" t="n">
-        <v>3091</v>
+        <v>3093</v>
       </c>
       <c r="C4858" t="inlineStr">
         <is>
@@ -87881,7 +87881,7 @@
         <v>4857</v>
       </c>
       <c r="B4859" t="n">
-        <v>3092</v>
+        <v>3094</v>
       </c>
       <c r="C4859" t="inlineStr">
         <is>
@@ -87899,11 +87899,11 @@
         <v>4858</v>
       </c>
       <c r="B4860" t="n">
-        <v>3092</v>
+        <v>3095</v>
       </c>
       <c r="C4860" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4860" t="inlineStr">
@@ -87917,7 +87917,7 @@
         <v>4859</v>
       </c>
       <c r="B4861" t="n">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="C4861" t="inlineStr">
         <is>
@@ -87935,11 +87935,11 @@
         <v>4860</v>
       </c>
       <c r="B4862" t="n">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="C4862" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4862" t="inlineStr">
@@ -87953,11 +87953,11 @@
         <v>4861</v>
       </c>
       <c r="B4863" t="n">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="C4863" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4863" t="inlineStr">
@@ -87971,7 +87971,7 @@
         <v>4862</v>
       </c>
       <c r="B4864" t="n">
-        <v>3095</v>
+        <v>3097</v>
       </c>
       <c r="C4864" t="inlineStr">
         <is>
@@ -87989,11 +87989,11 @@
         <v>4863</v>
       </c>
       <c r="B4865" t="n">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="C4865" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4865" t="inlineStr">
@@ -88007,7 +88007,7 @@
         <v>4864</v>
       </c>
       <c r="B4866" t="n">
-        <v>3096</v>
+        <v>3098</v>
       </c>
       <c r="C4866" t="inlineStr">
         <is>
@@ -88025,7 +88025,7 @@
         <v>4865</v>
       </c>
       <c r="B4867" t="n">
-        <v>3097</v>
+        <v>3100</v>
       </c>
       <c r="C4867" t="inlineStr">
         <is>
@@ -88043,11 +88043,11 @@
         <v>4866</v>
       </c>
       <c r="B4868" t="n">
-        <v>3098</v>
+        <v>3101</v>
       </c>
       <c r="C4868" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4868" t="inlineStr">
@@ -88061,11 +88061,11 @@
         <v>4867</v>
       </c>
       <c r="B4869" t="n">
-        <v>3098</v>
+        <v>3103</v>
       </c>
       <c r="C4869" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4869" t="inlineStr">
@@ -88079,7 +88079,7 @@
         <v>4868</v>
       </c>
       <c r="B4870" t="n">
-        <v>3100</v>
+        <v>3103</v>
       </c>
       <c r="C4870" t="inlineStr">
         <is>
@@ -88097,11 +88097,11 @@
         <v>4869</v>
       </c>
       <c r="B4871" t="n">
-        <v>3101</v>
+        <v>3103</v>
       </c>
       <c r="C4871" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4871" t="inlineStr">
@@ -88115,11 +88115,11 @@
         <v>4870</v>
       </c>
       <c r="B4872" t="n">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="C4872" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4872" t="inlineStr">
@@ -88133,7 +88133,7 @@
         <v>4871</v>
       </c>
       <c r="B4873" t="n">
-        <v>3103</v>
+        <v>3105</v>
       </c>
       <c r="C4873" t="inlineStr">
         <is>
@@ -88151,7 +88151,7 @@
         <v>4872</v>
       </c>
       <c r="B4874" t="n">
-        <v>3103</v>
+        <v>3105</v>
       </c>
       <c r="C4874" t="inlineStr">
         <is>
@@ -88169,7 +88169,7 @@
         <v>4873</v>
       </c>
       <c r="B4875" t="n">
-        <v>3104</v>
+        <v>3106</v>
       </c>
       <c r="C4875" t="inlineStr">
         <is>
@@ -88187,7 +88187,7 @@
         <v>4874</v>
       </c>
       <c r="B4876" t="n">
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="C4876" t="inlineStr">
         <is>
@@ -88205,11 +88205,11 @@
         <v>4875</v>
       </c>
       <c r="B4877" t="n">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="C4877" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D4877" t="inlineStr">
@@ -88223,11 +88223,11 @@
         <v>4876</v>
       </c>
       <c r="B4878" t="n">
-        <v>3106</v>
+        <v>3108</v>
       </c>
       <c r="C4878" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4878" t="inlineStr">
@@ -88241,7 +88241,7 @@
         <v>4877</v>
       </c>
       <c r="B4879" t="n">
-        <v>3107</v>
+        <v>3109</v>
       </c>
       <c r="C4879" t="inlineStr">
         <is>
@@ -88259,11 +88259,11 @@
         <v>4878</v>
       </c>
       <c r="B4880" t="n">
-        <v>3108</v>
+        <v>3111</v>
       </c>
       <c r="C4880" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4880" t="inlineStr">
@@ -88277,11 +88277,11 @@
         <v>4879</v>
       </c>
       <c r="B4881" t="n">
-        <v>3108</v>
+        <v>3112</v>
       </c>
       <c r="C4881" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4881" t="inlineStr">
@@ -88295,7 +88295,7 @@
         <v>4880</v>
       </c>
       <c r="B4882" t="n">
-        <v>3109</v>
+        <v>3114</v>
       </c>
       <c r="C4882" t="inlineStr">
         <is>
@@ -88313,11 +88313,11 @@
         <v>4881</v>
       </c>
       <c r="B4883" t="n">
-        <v>3111</v>
+        <v>3114</v>
       </c>
       <c r="C4883" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4883" t="inlineStr">
@@ -88331,7 +88331,7 @@
         <v>4882</v>
       </c>
       <c r="B4884" t="n">
-        <v>3112</v>
+        <v>3115</v>
       </c>
       <c r="C4884" t="inlineStr">
         <is>
@@ -88349,7 +88349,7 @@
         <v>4883</v>
       </c>
       <c r="B4885" t="n">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="C4885" t="inlineStr">
         <is>
@@ -88367,11 +88367,11 @@
         <v>4884</v>
       </c>
       <c r="B4886" t="n">
-        <v>3114</v>
+        <v>3117</v>
       </c>
       <c r="C4886" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4886" t="inlineStr">
@@ -88385,11 +88385,11 @@
         <v>4885</v>
       </c>
       <c r="B4887" t="n">
-        <v>3115</v>
+        <v>3118</v>
       </c>
       <c r="C4887" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4887" t="inlineStr">
@@ -88403,7 +88403,7 @@
         <v>4886</v>
       </c>
       <c r="B4888" t="n">
-        <v>3116</v>
+        <v>3118</v>
       </c>
       <c r="C4888" t="inlineStr">
         <is>
@@ -88421,11 +88421,11 @@
         <v>4887</v>
       </c>
       <c r="B4889" t="n">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="C4889" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4889" t="inlineStr">
@@ -88439,11 +88439,11 @@
         <v>4888</v>
       </c>
       <c r="B4890" t="n">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="C4890" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4890" t="inlineStr">
@@ -88457,7 +88457,7 @@
         <v>4889</v>
       </c>
       <c r="B4891" t="n">
-        <v>3118</v>
+        <v>3120</v>
       </c>
       <c r="C4891" t="inlineStr">
         <is>
@@ -88475,11 +88475,11 @@
         <v>4890</v>
       </c>
       <c r="B4892" t="n">
-        <v>3119</v>
+        <v>3121</v>
       </c>
       <c r="C4892" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4892" t="inlineStr">
@@ -88493,7 +88493,7 @@
         <v>4891</v>
       </c>
       <c r="B4893" t="n">
-        <v>3119</v>
+        <v>3123</v>
       </c>
       <c r="C4893" t="inlineStr">
         <is>
@@ -88511,7 +88511,7 @@
         <v>4892</v>
       </c>
       <c r="B4894" t="n">
-        <v>3120</v>
+        <v>3124</v>
       </c>
       <c r="C4894" t="inlineStr">
         <is>
@@ -88529,7 +88529,7 @@
         <v>4893</v>
       </c>
       <c r="B4895" t="n">
-        <v>3121</v>
+        <v>3125</v>
       </c>
       <c r="C4895" t="inlineStr">
         <is>
@@ -88547,7 +88547,7 @@
         <v>4894</v>
       </c>
       <c r="B4896" t="n">
-        <v>3123</v>
+        <v>3129</v>
       </c>
       <c r="C4896" t="inlineStr">
         <is>
@@ -88565,7 +88565,7 @@
         <v>4895</v>
       </c>
       <c r="B4897" t="n">
-        <v>3124</v>
+        <v>3132</v>
       </c>
       <c r="C4897" t="inlineStr">
         <is>
@@ -88583,7 +88583,7 @@
         <v>4896</v>
       </c>
       <c r="B4898" t="n">
-        <v>3125</v>
+        <v>3133</v>
       </c>
       <c r="C4898" t="inlineStr">
         <is>
@@ -88601,7 +88601,7 @@
         <v>4897</v>
       </c>
       <c r="B4899" t="n">
-        <v>3129</v>
+        <v>3134</v>
       </c>
       <c r="C4899" t="inlineStr">
         <is>
@@ -88619,7 +88619,7 @@
         <v>4898</v>
       </c>
       <c r="B4900" t="n">
-        <v>3132</v>
+        <v>3135</v>
       </c>
       <c r="C4900" t="inlineStr">
         <is>
@@ -88637,7 +88637,7 @@
         <v>4899</v>
       </c>
       <c r="B4901" t="n">
-        <v>3133</v>
+        <v>3136</v>
       </c>
       <c r="C4901" t="inlineStr">
         <is>
@@ -88655,7 +88655,7 @@
         <v>4900</v>
       </c>
       <c r="B4902" t="n">
-        <v>3134</v>
+        <v>3137</v>
       </c>
       <c r="C4902" t="inlineStr">
         <is>
@@ -88673,7 +88673,7 @@
         <v>4901</v>
       </c>
       <c r="B4903" t="n">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C4903" t="inlineStr">
         <is>
@@ -88691,7 +88691,7 @@
         <v>4902</v>
       </c>
       <c r="B4904" t="n">
-        <v>3136</v>
+        <v>3141</v>
       </c>
       <c r="C4904" t="inlineStr">
         <is>
@@ -88709,7 +88709,7 @@
         <v>4903</v>
       </c>
       <c r="B4905" t="n">
-        <v>3137</v>
+        <v>3143</v>
       </c>
       <c r="C4905" t="inlineStr">
         <is>
@@ -88727,7 +88727,7 @@
         <v>4904</v>
       </c>
       <c r="B4906" t="n">
-        <v>3139</v>
+        <v>3144</v>
       </c>
       <c r="C4906" t="inlineStr">
         <is>
@@ -88745,7 +88745,7 @@
         <v>4905</v>
       </c>
       <c r="B4907" t="n">
-        <v>3141</v>
+        <v>3146</v>
       </c>
       <c r="C4907" t="inlineStr">
         <is>
@@ -88763,7 +88763,7 @@
         <v>4906</v>
       </c>
       <c r="B4908" t="n">
-        <v>3143</v>
+        <v>3147</v>
       </c>
       <c r="C4908" t="inlineStr">
         <is>
@@ -88781,7 +88781,7 @@
         <v>4907</v>
       </c>
       <c r="B4909" t="n">
-        <v>3144</v>
+        <v>3148</v>
       </c>
       <c r="C4909" t="inlineStr">
         <is>
@@ -88799,7 +88799,7 @@
         <v>4908</v>
       </c>
       <c r="B4910" t="n">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="C4910" t="inlineStr">
         <is>
@@ -88817,7 +88817,7 @@
         <v>4909</v>
       </c>
       <c r="B4911" t="n">
-        <v>3147</v>
+        <v>3150</v>
       </c>
       <c r="C4911" t="inlineStr">
         <is>
@@ -88835,7 +88835,7 @@
         <v>4910</v>
       </c>
       <c r="B4912" t="n">
-        <v>3148</v>
+        <v>3153</v>
       </c>
       <c r="C4912" t="inlineStr">
         <is>
@@ -88853,7 +88853,7 @@
         <v>4911</v>
       </c>
       <c r="B4913" t="n">
-        <v>3149</v>
+        <v>3154</v>
       </c>
       <c r="C4913" t="inlineStr">
         <is>
@@ -88871,7 +88871,7 @@
         <v>4912</v>
       </c>
       <c r="B4914" t="n">
-        <v>3150</v>
+        <v>3156</v>
       </c>
       <c r="C4914" t="inlineStr">
         <is>
@@ -88889,11 +88889,11 @@
         <v>4913</v>
       </c>
       <c r="B4915" t="n">
-        <v>3153</v>
+        <v>3156</v>
       </c>
       <c r="C4915" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4915" t="inlineStr">
@@ -88907,7 +88907,7 @@
         <v>4914</v>
       </c>
       <c r="B4916" t="n">
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="C4916" t="inlineStr">
         <is>
@@ -88925,11 +88925,11 @@
         <v>4915</v>
       </c>
       <c r="B4917" t="n">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="C4917" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D4917" t="inlineStr">
@@ -88943,11 +88943,11 @@
         <v>4916</v>
       </c>
       <c r="B4918" t="n">
-        <v>3156</v>
+        <v>3159</v>
       </c>
       <c r="C4918" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4918" t="inlineStr">
@@ -88961,11 +88961,11 @@
         <v>4917</v>
       </c>
       <c r="B4919" t="n">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="C4919" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4919" t="inlineStr">
@@ -88979,11 +88979,11 @@
         <v>4918</v>
       </c>
       <c r="B4920" t="n">
-        <v>3157</v>
+        <v>3160</v>
       </c>
       <c r="C4920" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4920" t="inlineStr">
@@ -88997,7 +88997,7 @@
         <v>4919</v>
       </c>
       <c r="B4921" t="n">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="C4921" t="inlineStr">
         <is>
@@ -89015,7 +89015,7 @@
         <v>4920</v>
       </c>
       <c r="B4922" t="n">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="C4922" t="inlineStr">
         <is>
@@ -89033,7 +89033,7 @@
         <v>4921</v>
       </c>
       <c r="B4923" t="n">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="C4923" t="inlineStr">
         <is>
@@ -89051,7 +89051,7 @@
         <v>4922</v>
       </c>
       <c r="B4924" t="n">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="C4924" t="inlineStr">
         <is>
@@ -89069,11 +89069,11 @@
         <v>4923</v>
       </c>
       <c r="B4925" t="n">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="C4925" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4925" t="inlineStr">
@@ -89087,7 +89087,7 @@
         <v>4924</v>
       </c>
       <c r="B4926" t="n">
-        <v>3162</v>
+        <v>3165</v>
       </c>
       <c r="C4926" t="inlineStr">
         <is>
@@ -89105,11 +89105,11 @@
         <v>4925</v>
       </c>
       <c r="B4927" t="n">
-        <v>3163</v>
+        <v>3166</v>
       </c>
       <c r="C4927" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4927" t="inlineStr">
@@ -89123,7 +89123,7 @@
         <v>4926</v>
       </c>
       <c r="B4928" t="n">
-        <v>3164</v>
+        <v>3166</v>
       </c>
       <c r="C4928" t="inlineStr">
         <is>
@@ -89141,11 +89141,11 @@
         <v>4927</v>
       </c>
       <c r="B4929" t="n">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="C4929" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4929" t="inlineStr">
@@ -89159,11 +89159,11 @@
         <v>4928</v>
       </c>
       <c r="B4930" t="n">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C4930" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D4930" t="inlineStr">
@@ -89177,11 +89177,11 @@
         <v>4929</v>
       </c>
       <c r="B4931" t="n">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C4931" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4931" t="inlineStr">
@@ -89195,11 +89195,11 @@
         <v>4930</v>
       </c>
       <c r="B4932" t="n">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C4932" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4932" t="inlineStr">
@@ -89213,11 +89213,11 @@
         <v>4931</v>
       </c>
       <c r="B4933" t="n">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="C4933" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4933" t="inlineStr">
@@ -89231,11 +89231,11 @@
         <v>4932</v>
       </c>
       <c r="B4934" t="n">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="C4934" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4934" t="inlineStr">
@@ -89249,11 +89249,11 @@
         <v>4933</v>
       </c>
       <c r="B4935" t="n">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="C4935" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4935" t="inlineStr">
@@ -89267,7 +89267,7 @@
         <v>4934</v>
       </c>
       <c r="B4936" t="n">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="C4936" t="inlineStr">
         <is>
@@ -89285,7 +89285,7 @@
         <v>4935</v>
       </c>
       <c r="B4937" t="n">
-        <v>3169</v>
+        <v>3173</v>
       </c>
       <c r="C4937" t="inlineStr">
         <is>
@@ -89303,11 +89303,11 @@
         <v>4936</v>
       </c>
       <c r="B4938" t="n">
-        <v>3170</v>
+        <v>3174</v>
       </c>
       <c r="C4938" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4938" t="inlineStr">
@@ -89321,7 +89321,7 @@
         <v>4937</v>
       </c>
       <c r="B4939" t="n">
-        <v>3170</v>
+        <v>3176</v>
       </c>
       <c r="C4939" t="inlineStr">
         <is>
@@ -89339,7 +89339,7 @@
         <v>4938</v>
       </c>
       <c r="B4940" t="n">
-        <v>3173</v>
+        <v>3177</v>
       </c>
       <c r="C4940" t="inlineStr">
         <is>
@@ -89357,11 +89357,11 @@
         <v>4939</v>
       </c>
       <c r="B4941" t="n">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="C4941" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4941" t="inlineStr">
@@ -89375,7 +89375,7 @@
         <v>4940</v>
       </c>
       <c r="B4942" t="n">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="C4942" t="inlineStr">
         <is>
@@ -89393,11 +89393,11 @@
         <v>4941</v>
       </c>
       <c r="B4943" t="n">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="C4943" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4943" t="inlineStr">
@@ -89411,11 +89411,11 @@
         <v>4942</v>
       </c>
       <c r="B4944" t="n">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="C4944" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4944" t="inlineStr">
@@ -89429,7 +89429,7 @@
         <v>4943</v>
       </c>
       <c r="B4945" t="n">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="C4945" t="inlineStr">
         <is>
@@ -89447,11 +89447,11 @@
         <v>4944</v>
       </c>
       <c r="B4946" t="n">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="C4946" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4946" t="inlineStr">
@@ -89465,7 +89465,7 @@
         <v>4945</v>
       </c>
       <c r="B4947" t="n">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="C4947" t="inlineStr">
         <is>
@@ -89483,11 +89483,11 @@
         <v>4946</v>
       </c>
       <c r="B4948" t="n">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="C4948" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4948" t="inlineStr">
@@ -89501,11 +89501,11 @@
         <v>4947</v>
       </c>
       <c r="B4949" t="n">
-        <v>3182</v>
+        <v>3185</v>
       </c>
       <c r="C4949" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D4949" t="inlineStr">
@@ -89519,11 +89519,11 @@
         <v>4948</v>
       </c>
       <c r="B4950" t="n">
-        <v>3183</v>
+        <v>3185</v>
       </c>
       <c r="C4950" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4950" t="inlineStr">
@@ -89537,11 +89537,11 @@
         <v>4949</v>
       </c>
       <c r="B4951" t="n">
-        <v>3183</v>
+        <v>3185</v>
       </c>
       <c r="C4951" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4951" t="inlineStr">
@@ -89555,11 +89555,11 @@
         <v>4950</v>
       </c>
       <c r="B4952" t="n">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="C4952" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4952" t="inlineStr">
@@ -89573,11 +89573,11 @@
         <v>4951</v>
       </c>
       <c r="B4953" t="n">
-        <v>3185</v>
+        <v>3187</v>
       </c>
       <c r="C4953" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4953" t="inlineStr">
@@ -89591,11 +89591,11 @@
         <v>4952</v>
       </c>
       <c r="B4954" t="n">
-        <v>3185</v>
+        <v>3187</v>
       </c>
       <c r="C4954" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4954" t="inlineStr">
@@ -89609,7 +89609,7 @@
         <v>4953</v>
       </c>
       <c r="B4955" t="n">
-        <v>3186</v>
+        <v>3188</v>
       </c>
       <c r="C4955" t="inlineStr">
         <is>
@@ -89627,11 +89627,11 @@
         <v>4954</v>
       </c>
       <c r="B4956" t="n">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="C4956" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4956" t="inlineStr">
@@ -89645,11 +89645,11 @@
         <v>4955</v>
       </c>
       <c r="B4957" t="n">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="C4957" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4957" t="inlineStr">
@@ -89663,11 +89663,11 @@
         <v>4956</v>
       </c>
       <c r="B4958" t="n">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="C4958" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4958" t="inlineStr">
@@ -89681,11 +89681,11 @@
         <v>4957</v>
       </c>
       <c r="B4959" t="n">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="C4959" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4959" t="inlineStr">
@@ -89699,11 +89699,11 @@
         <v>4958</v>
       </c>
       <c r="B4960" t="n">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="C4960" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4960" t="inlineStr">
@@ -89717,11 +89717,11 @@
         <v>4959</v>
       </c>
       <c r="B4961" t="n">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="C4961" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4961" t="inlineStr">
@@ -89735,7 +89735,7 @@
         <v>4960</v>
       </c>
       <c r="B4962" t="n">
-        <v>3190</v>
+        <v>3192</v>
       </c>
       <c r="C4962" t="inlineStr">
         <is>
@@ -89753,11 +89753,11 @@
         <v>4961</v>
       </c>
       <c r="B4963" t="n">
-        <v>3191</v>
+        <v>3193</v>
       </c>
       <c r="C4963" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4963" t="inlineStr">
@@ -89771,7 +89771,7 @@
         <v>4962</v>
       </c>
       <c r="B4964" t="n">
-        <v>3191</v>
+        <v>3194</v>
       </c>
       <c r="C4964" t="inlineStr">
         <is>
@@ -89789,7 +89789,7 @@
         <v>4963</v>
       </c>
       <c r="B4965" t="n">
-        <v>3192</v>
+        <v>3198</v>
       </c>
       <c r="C4965" t="inlineStr">
         <is>
@@ -89807,7 +89807,7 @@
         <v>4964</v>
       </c>
       <c r="B4966" t="n">
-        <v>3193</v>
+        <v>3199</v>
       </c>
       <c r="C4966" t="inlineStr">
         <is>
@@ -89825,7 +89825,7 @@
         <v>4965</v>
       </c>
       <c r="B4967" t="n">
-        <v>3194</v>
+        <v>3201</v>
       </c>
       <c r="C4967" t="inlineStr">
         <is>
@@ -89843,11 +89843,11 @@
         <v>4966</v>
       </c>
       <c r="B4968" t="n">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="C4968" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4968" t="inlineStr">
@@ -89861,7 +89861,7 @@
         <v>4967</v>
       </c>
       <c r="B4969" t="n">
-        <v>3199</v>
+        <v>3202</v>
       </c>
       <c r="C4969" t="inlineStr">
         <is>
@@ -89879,7 +89879,7 @@
         <v>4968</v>
       </c>
       <c r="B4970" t="n">
-        <v>3201</v>
+        <v>3203</v>
       </c>
       <c r="C4970" t="inlineStr">
         <is>
@@ -89897,11 +89897,11 @@
         <v>4969</v>
       </c>
       <c r="B4971" t="n">
-        <v>3201</v>
+        <v>3204</v>
       </c>
       <c r="C4971" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4971" t="inlineStr">
@@ -89915,7 +89915,7 @@
         <v>4970</v>
       </c>
       <c r="B4972" t="n">
-        <v>3202</v>
+        <v>3207</v>
       </c>
       <c r="C4972" t="inlineStr">
         <is>
@@ -89933,7 +89933,7 @@
         <v>4971</v>
       </c>
       <c r="B4973" t="n">
-        <v>3203</v>
+        <v>3208</v>
       </c>
       <c r="C4973" t="inlineStr">
         <is>
@@ -89951,7 +89951,7 @@
         <v>4972</v>
       </c>
       <c r="B4974" t="n">
-        <v>3204</v>
+        <v>3211</v>
       </c>
       <c r="C4974" t="inlineStr">
         <is>
@@ -89969,7 +89969,7 @@
         <v>4973</v>
       </c>
       <c r="B4975" t="n">
-        <v>3207</v>
+        <v>3213</v>
       </c>
       <c r="C4975" t="inlineStr">
         <is>
@@ -89987,7 +89987,7 @@
         <v>4974</v>
       </c>
       <c r="B4976" t="n">
-        <v>3208</v>
+        <v>3214</v>
       </c>
       <c r="C4976" t="inlineStr">
         <is>
@@ -90005,11 +90005,11 @@
         <v>4975</v>
       </c>
       <c r="B4977" t="n">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="C4977" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4977" t="inlineStr">
@@ -90023,7 +90023,7 @@
         <v>4976</v>
       </c>
       <c r="B4978" t="n">
-        <v>3213</v>
+        <v>3215</v>
       </c>
       <c r="C4978" t="inlineStr">
         <is>
@@ -90041,7 +90041,7 @@
         <v>4977</v>
       </c>
       <c r="B4979" t="n">
-        <v>3214</v>
+        <v>3217</v>
       </c>
       <c r="C4979" t="inlineStr">
         <is>
@@ -90059,11 +90059,11 @@
         <v>4978</v>
       </c>
       <c r="B4980" t="n">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="C4980" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4980" t="inlineStr">
@@ -90077,7 +90077,7 @@
         <v>4979</v>
       </c>
       <c r="B4981" t="n">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="C4981" t="inlineStr">
         <is>
@@ -90095,7 +90095,7 @@
         <v>4980</v>
       </c>
       <c r="B4982" t="n">
-        <v>3217</v>
+        <v>3222</v>
       </c>
       <c r="C4982" t="inlineStr">
         <is>
@@ -90113,7 +90113,7 @@
         <v>4981</v>
       </c>
       <c r="B4983" t="n">
-        <v>3218</v>
+        <v>3224</v>
       </c>
       <c r="C4983" t="inlineStr">
         <is>
@@ -90131,7 +90131,7 @@
         <v>4982</v>
       </c>
       <c r="B4984" t="n">
-        <v>3219</v>
+        <v>3227</v>
       </c>
       <c r="C4984" t="inlineStr">
         <is>
@@ -90149,7 +90149,7 @@
         <v>4983</v>
       </c>
       <c r="B4985" t="n">
-        <v>3222</v>
+        <v>3228</v>
       </c>
       <c r="C4985" t="inlineStr">
         <is>
@@ -90167,7 +90167,7 @@
         <v>4984</v>
       </c>
       <c r="B4986" t="n">
-        <v>3224</v>
+        <v>3229</v>
       </c>
       <c r="C4986" t="inlineStr">
         <is>
@@ -90185,11 +90185,11 @@
         <v>4985</v>
       </c>
       <c r="B4987" t="n">
-        <v>3227</v>
+        <v>3233</v>
       </c>
       <c r="C4987" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D4987" t="inlineStr">
@@ -90203,11 +90203,11 @@
         <v>4986</v>
       </c>
       <c r="B4988" t="n">
-        <v>3228</v>
+        <v>3233</v>
       </c>
       <c r="C4988" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4988" t="inlineStr">
@@ -90221,7 +90221,7 @@
         <v>4987</v>
       </c>
       <c r="B4989" t="n">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="C4989" t="inlineStr">
         <is>
@@ -90239,11 +90239,11 @@
         <v>4988</v>
       </c>
       <c r="B4990" t="n">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="C4990" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4990" t="inlineStr">
@@ -90257,11 +90257,11 @@
         <v>4989</v>
       </c>
       <c r="B4991" t="n">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="C4991" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4991" t="inlineStr">
@@ -90275,11 +90275,11 @@
         <v>4990</v>
       </c>
       <c r="B4992" t="n">
-        <v>3233</v>
+        <v>3235</v>
       </c>
       <c r="C4992" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D4992" t="inlineStr">
@@ -90293,11 +90293,11 @@
         <v>4991</v>
       </c>
       <c r="B4993" t="n">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C4993" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4993" t="inlineStr">
@@ -90311,11 +90311,11 @@
         <v>4992</v>
       </c>
       <c r="B4994" t="n">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C4994" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4994" t="inlineStr">
@@ -90329,11 +90329,11 @@
         <v>4993</v>
       </c>
       <c r="B4995" t="n">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="C4995" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4995" t="inlineStr">
@@ -90347,11 +90347,11 @@
         <v>4994</v>
       </c>
       <c r="B4996" t="n">
-        <v>3235</v>
+        <v>3238</v>
       </c>
       <c r="C4996" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4996" t="inlineStr">
@@ -90365,11 +90365,11 @@
         <v>4995</v>
       </c>
       <c r="B4997" t="n">
-        <v>3235</v>
+        <v>3238</v>
       </c>
       <c r="C4997" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D4997" t="inlineStr">
@@ -90383,11 +90383,11 @@
         <v>4996</v>
       </c>
       <c r="B4998" t="n">
-        <v>3236</v>
+        <v>3238</v>
       </c>
       <c r="C4998" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D4998" t="inlineStr">
@@ -90401,7 +90401,7 @@
         <v>4997</v>
       </c>
       <c r="B4999" t="n">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="C4999" t="inlineStr">
         <is>
@@ -90419,11 +90419,11 @@
         <v>4998</v>
       </c>
       <c r="B5000" t="n">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="C5000" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5000" t="inlineStr">
@@ -90437,11 +90437,11 @@
         <v>4999</v>
       </c>
       <c r="B5001" t="n">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="C5001" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5001" t="inlineStr">
@@ -90455,7 +90455,7 @@
         <v>5000</v>
       </c>
       <c r="B5002" t="n">
-        <v>3239</v>
+        <v>3245</v>
       </c>
       <c r="C5002" t="inlineStr">
         <is>
@@ -90473,11 +90473,11 @@
         <v>5001</v>
       </c>
       <c r="B5003" t="n">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="C5003" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5003" t="inlineStr">
@@ -90491,7 +90491,7 @@
         <v>5002</v>
       </c>
       <c r="B5004" t="n">
-        <v>3242</v>
+        <v>3247</v>
       </c>
       <c r="C5004" t="inlineStr">
         <is>
@@ -90509,11 +90509,11 @@
         <v>5003</v>
       </c>
       <c r="B5005" t="n">
-        <v>3245</v>
+        <v>3249</v>
       </c>
       <c r="C5005" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5005" t="inlineStr">
@@ -90527,7 +90527,7 @@
         <v>5004</v>
       </c>
       <c r="B5006" t="n">
-        <v>3246</v>
+        <v>3250</v>
       </c>
       <c r="C5006" t="inlineStr">
         <is>
@@ -90545,7 +90545,7 @@
         <v>5005</v>
       </c>
       <c r="B5007" t="n">
-        <v>3247</v>
+        <v>3251</v>
       </c>
       <c r="C5007" t="inlineStr">
         <is>
@@ -90563,7 +90563,7 @@
         <v>5006</v>
       </c>
       <c r="B5008" t="n">
-        <v>3249</v>
+        <v>3251</v>
       </c>
       <c r="C5008" t="inlineStr">
         <is>
@@ -90581,11 +90581,11 @@
         <v>5007</v>
       </c>
       <c r="B5009" t="n">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="C5009" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D5009" t="inlineStr">
@@ -90599,7 +90599,7 @@
         <v>5008</v>
       </c>
       <c r="B5010" t="n">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="C5010" t="inlineStr">
         <is>
@@ -90617,11 +90617,11 @@
         <v>5009</v>
       </c>
       <c r="B5011" t="n">
-        <v>3251</v>
+        <v>3253</v>
       </c>
       <c r="C5011" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5011" t="inlineStr">
@@ -90635,11 +90635,11 @@
         <v>5010</v>
       </c>
       <c r="B5012" t="n">
-        <v>3251</v>
+        <v>3255</v>
       </c>
       <c r="C5012" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D5012" t="inlineStr">
@@ -90653,11 +90653,11 @@
         <v>5011</v>
       </c>
       <c r="B5013" t="n">
-        <v>3252</v>
+        <v>3255</v>
       </c>
       <c r="C5013" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5013" t="inlineStr">
@@ -90671,7 +90671,7 @@
         <v>5012</v>
       </c>
       <c r="B5014" t="n">
-        <v>3253</v>
+        <v>3255</v>
       </c>
       <c r="C5014" t="inlineStr">
         <is>
@@ -90689,7 +90689,7 @@
         <v>5013</v>
       </c>
       <c r="B5015" t="n">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="C5015" t="inlineStr">
         <is>
@@ -90707,7 +90707,7 @@
         <v>5014</v>
       </c>
       <c r="B5016" t="n">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="C5016" t="inlineStr">
         <is>
@@ -90725,7 +90725,7 @@
         <v>5015</v>
       </c>
       <c r="B5017" t="n">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="C5017" t="inlineStr">
         <is>
@@ -90743,11 +90743,11 @@
         <v>5016</v>
       </c>
       <c r="B5018" t="n">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="C5018" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5018" t="inlineStr">
@@ -90761,11 +90761,11 @@
         <v>5017</v>
       </c>
       <c r="B5019" t="n">
-        <v>3257</v>
+        <v>3259</v>
       </c>
       <c r="C5019" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D5019" t="inlineStr">
@@ -90779,11 +90779,11 @@
         <v>5018</v>
       </c>
       <c r="B5020" t="n">
-        <v>3257</v>
+        <v>3259</v>
       </c>
       <c r="C5020" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5020" t="inlineStr">
@@ -90797,7 +90797,7 @@
         <v>5019</v>
       </c>
       <c r="B5021" t="n">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="C5021" t="inlineStr">
         <is>
@@ -90815,7 +90815,7 @@
         <v>5020</v>
       </c>
       <c r="B5022" t="n">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="C5022" t="inlineStr">
         <is>
@@ -90833,7 +90833,7 @@
         <v>5021</v>
       </c>
       <c r="B5023" t="n">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="C5023" t="inlineStr">
         <is>
@@ -90851,7 +90851,7 @@
         <v>5022</v>
       </c>
       <c r="B5024" t="n">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="C5024" t="inlineStr">
         <is>
@@ -90869,11 +90869,11 @@
         <v>5023</v>
       </c>
       <c r="B5025" t="n">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="C5025" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5025" t="inlineStr">
@@ -90887,11 +90887,11 @@
         <v>5024</v>
       </c>
       <c r="B5026" t="n">
-        <v>3260</v>
+        <v>3262</v>
       </c>
       <c r="C5026" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5026" t="inlineStr">
@@ -90905,7 +90905,7 @@
         <v>5025</v>
       </c>
       <c r="B5027" t="n">
-        <v>3260</v>
+        <v>3263</v>
       </c>
       <c r="C5027" t="inlineStr">
         <is>
@@ -90923,7 +90923,7 @@
         <v>5026</v>
       </c>
       <c r="B5028" t="n">
-        <v>3261</v>
+        <v>3264</v>
       </c>
       <c r="C5028" t="inlineStr">
         <is>
@@ -90941,11 +90941,11 @@
         <v>5027</v>
       </c>
       <c r="B5029" t="n">
-        <v>3262</v>
+        <v>3265</v>
       </c>
       <c r="C5029" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D5029" t="inlineStr">
@@ -90959,7 +90959,7 @@
         <v>5028</v>
       </c>
       <c r="B5030" t="n">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="C5030" t="inlineStr">
         <is>
@@ -90977,7 +90977,7 @@
         <v>5029</v>
       </c>
       <c r="B5031" t="n">
-        <v>3264</v>
+        <v>3269</v>
       </c>
       <c r="C5031" t="inlineStr">
         <is>
@@ -90995,11 +90995,11 @@
         <v>5030</v>
       </c>
       <c r="B5032" t="n">
-        <v>3265</v>
+        <v>3269</v>
       </c>
       <c r="C5032" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5032" t="inlineStr">
@@ -91013,7 +91013,7 @@
         <v>5031</v>
       </c>
       <c r="B5033" t="n">
-        <v>3267</v>
+        <v>3271</v>
       </c>
       <c r="C5033" t="inlineStr">
         <is>
@@ -91031,7 +91031,7 @@
         <v>5032</v>
       </c>
       <c r="B5034" t="n">
-        <v>3269</v>
+        <v>3272</v>
       </c>
       <c r="C5034" t="inlineStr">
         <is>
@@ -91049,11 +91049,11 @@
         <v>5033</v>
       </c>
       <c r="B5035" t="n">
-        <v>3269</v>
+        <v>3274</v>
       </c>
       <c r="C5035" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5035" t="inlineStr">
@@ -91067,7 +91067,7 @@
         <v>5034</v>
       </c>
       <c r="B5036" t="n">
-        <v>3271</v>
+        <v>3274</v>
       </c>
       <c r="C5036" t="inlineStr">
         <is>
@@ -91085,11 +91085,11 @@
         <v>5035</v>
       </c>
       <c r="B5037" t="n">
-        <v>3272</v>
+        <v>3274</v>
       </c>
       <c r="C5037" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5037" t="inlineStr">
@@ -91103,11 +91103,11 @@
         <v>5036</v>
       </c>
       <c r="B5038" t="n">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="C5038" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5038" t="inlineStr">
@@ -91121,7 +91121,7 @@
         <v>5037</v>
       </c>
       <c r="B5039" t="n">
-        <v>3274</v>
+        <v>3276</v>
       </c>
       <c r="C5039" t="inlineStr">
         <is>
@@ -91139,11 +91139,11 @@
         <v>5038</v>
       </c>
       <c r="B5040" t="n">
-        <v>3274</v>
+        <v>3277</v>
       </c>
       <c r="C5040" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5040" t="inlineStr">
@@ -91157,11 +91157,11 @@
         <v>5039</v>
       </c>
       <c r="B5041" t="n">
-        <v>3275</v>
+        <v>3278</v>
       </c>
       <c r="C5041" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5041" t="inlineStr">
@@ -91175,7 +91175,7 @@
         <v>5040</v>
       </c>
       <c r="B5042" t="n">
-        <v>3276</v>
+        <v>3278</v>
       </c>
       <c r="C5042" t="inlineStr">
         <is>
@@ -91193,7 +91193,7 @@
         <v>5041</v>
       </c>
       <c r="B5043" t="n">
-        <v>3277</v>
+        <v>3281</v>
       </c>
       <c r="C5043" t="inlineStr">
         <is>
@@ -91211,11 +91211,11 @@
         <v>5042</v>
       </c>
       <c r="B5044" t="n">
-        <v>3278</v>
+        <v>3283</v>
       </c>
       <c r="C5044" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5044" t="inlineStr">
@@ -91229,7 +91229,7 @@
         <v>5043</v>
       </c>
       <c r="B5045" t="n">
-        <v>3278</v>
+        <v>3284</v>
       </c>
       <c r="C5045" t="inlineStr">
         <is>
@@ -91247,7 +91247,7 @@
         <v>5044</v>
       </c>
       <c r="B5046" t="n">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="C5046" t="inlineStr">
         <is>
@@ -91265,11 +91265,11 @@
         <v>5045</v>
       </c>
       <c r="B5047" t="n">
-        <v>3283</v>
+        <v>3287</v>
       </c>
       <c r="C5047" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5047" t="inlineStr">
@@ -91283,7 +91283,7 @@
         <v>5046</v>
       </c>
       <c r="B5048" t="n">
-        <v>3284</v>
+        <v>3287</v>
       </c>
       <c r="C5048" t="inlineStr">
         <is>
@@ -91301,11 +91301,11 @@
         <v>5047</v>
       </c>
       <c r="B5049" t="n">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="C5049" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5049" t="inlineStr">
@@ -91319,11 +91319,11 @@
         <v>5048</v>
       </c>
       <c r="B5050" t="n">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="C5050" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5050" t="inlineStr">
@@ -91337,7 +91337,7 @@
         <v>5049</v>
       </c>
       <c r="B5051" t="n">
-        <v>3287</v>
+        <v>3289</v>
       </c>
       <c r="C5051" t="inlineStr">
         <is>
@@ -91355,11 +91355,11 @@
         <v>5050</v>
       </c>
       <c r="B5052" t="n">
-        <v>3287</v>
+        <v>3291</v>
       </c>
       <c r="C5052" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5052" t="inlineStr">
@@ -91373,11 +91373,11 @@
         <v>5051</v>
       </c>
       <c r="B5053" t="n">
-        <v>3288</v>
+        <v>3292</v>
       </c>
       <c r="C5053" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5053" t="inlineStr">
@@ -91391,7 +91391,7 @@
         <v>5052</v>
       </c>
       <c r="B5054" t="n">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="C5054" t="inlineStr">
         <is>
@@ -91409,7 +91409,7 @@
         <v>5053</v>
       </c>
       <c r="B5055" t="n">
-        <v>3291</v>
+        <v>3293</v>
       </c>
       <c r="C5055" t="inlineStr">
         <is>
@@ -91427,11 +91427,11 @@
         <v>5054</v>
       </c>
       <c r="B5056" t="n">
-        <v>3292</v>
+        <v>3294</v>
       </c>
       <c r="C5056" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5056" t="inlineStr">
@@ -91445,7 +91445,7 @@
         <v>5055</v>
       </c>
       <c r="B5057" t="n">
-        <v>3292</v>
+        <v>3295</v>
       </c>
       <c r="C5057" t="inlineStr">
         <is>
@@ -91463,11 +91463,11 @@
         <v>5056</v>
       </c>
       <c r="B5058" t="n">
-        <v>3293</v>
+        <v>3295</v>
       </c>
       <c r="C5058" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5058" t="inlineStr">
@@ -91481,7 +91481,7 @@
         <v>5057</v>
       </c>
       <c r="B5059" t="n">
-        <v>3294</v>
+        <v>3296</v>
       </c>
       <c r="C5059" t="inlineStr">
         <is>
@@ -91499,7 +91499,7 @@
         <v>5058</v>
       </c>
       <c r="B5060" t="n">
-        <v>3295</v>
+        <v>3298</v>
       </c>
       <c r="C5060" t="inlineStr">
         <is>
@@ -91517,11 +91517,11 @@
         <v>5059</v>
       </c>
       <c r="B5061" t="n">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="C5061" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5061" t="inlineStr">
@@ -91535,7 +91535,7 @@
         <v>5060</v>
       </c>
       <c r="B5062" t="n">
-        <v>3296</v>
+        <v>3299</v>
       </c>
       <c r="C5062" t="inlineStr">
         <is>
@@ -91553,7 +91553,7 @@
         <v>5061</v>
       </c>
       <c r="B5063" t="n">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="C5063" t="inlineStr">
         <is>
@@ -91571,11 +91571,11 @@
         <v>5062</v>
       </c>
       <c r="B5064" t="n">
-        <v>3299</v>
+        <v>3302</v>
       </c>
       <c r="C5064" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5064" t="inlineStr">
@@ -91589,11 +91589,11 @@
         <v>5063</v>
       </c>
       <c r="B5065" t="n">
-        <v>3299</v>
+        <v>3302</v>
       </c>
       <c r="C5065" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5065" t="inlineStr">
@@ -91607,7 +91607,7 @@
         <v>5064</v>
       </c>
       <c r="B5066" t="n">
-        <v>3300</v>
+        <v>3303</v>
       </c>
       <c r="C5066" t="inlineStr">
         <is>
@@ -91625,7 +91625,7 @@
         <v>5065</v>
       </c>
       <c r="B5067" t="n">
-        <v>3302</v>
+        <v>3304</v>
       </c>
       <c r="C5067" t="inlineStr">
         <is>
@@ -91643,11 +91643,11 @@
         <v>5066</v>
       </c>
       <c r="B5068" t="n">
-        <v>3302</v>
+        <v>3305</v>
       </c>
       <c r="C5068" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5068" t="inlineStr">
@@ -91661,7 +91661,7 @@
         <v>5067</v>
       </c>
       <c r="B5069" t="n">
-        <v>3303</v>
+        <v>3305</v>
       </c>
       <c r="C5069" t="inlineStr">
         <is>
@@ -91679,7 +91679,7 @@
         <v>5068</v>
       </c>
       <c r="B5070" t="n">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="C5070" t="inlineStr">
         <is>
@@ -91697,11 +91697,11 @@
         <v>5069</v>
       </c>
       <c r="B5071" t="n">
-        <v>3305</v>
+        <v>3307</v>
       </c>
       <c r="C5071" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5071" t="inlineStr">
@@ -91715,11 +91715,11 @@
         <v>5070</v>
       </c>
       <c r="B5072" t="n">
-        <v>3305</v>
+        <v>3310</v>
       </c>
       <c r="C5072" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D5072" t="inlineStr">
@@ -91733,7 +91733,7 @@
         <v>5071</v>
       </c>
       <c r="B5073" t="n">
-        <v>3306</v>
+        <v>3311</v>
       </c>
       <c r="C5073" t="inlineStr">
         <is>
@@ -91751,7 +91751,7 @@
         <v>5072</v>
       </c>
       <c r="B5074" t="n">
-        <v>3307</v>
+        <v>3312</v>
       </c>
       <c r="C5074" t="inlineStr">
         <is>
@@ -91769,11 +91769,11 @@
         <v>5073</v>
       </c>
       <c r="B5075" t="n">
-        <v>3310</v>
+        <v>3313</v>
       </c>
       <c r="C5075" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5075" t="inlineStr">
@@ -91787,7 +91787,7 @@
         <v>5074</v>
       </c>
       <c r="B5076" t="n">
-        <v>3311</v>
+        <v>3314</v>
       </c>
       <c r="C5076" t="inlineStr">
         <is>
@@ -91805,11 +91805,11 @@
         <v>5075</v>
       </c>
       <c r="B5077" t="n">
-        <v>3312</v>
+        <v>3314</v>
       </c>
       <c r="C5077" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5077" t="inlineStr">
@@ -91823,7 +91823,7 @@
         <v>5076</v>
       </c>
       <c r="B5078" t="n">
-        <v>3313</v>
+        <v>3315</v>
       </c>
       <c r="C5078" t="inlineStr">
         <is>
@@ -91841,7 +91841,7 @@
         <v>5077</v>
       </c>
       <c r="B5079" t="n">
-        <v>3314</v>
+        <v>3316</v>
       </c>
       <c r="C5079" t="inlineStr">
         <is>
@@ -91859,11 +91859,11 @@
         <v>5078</v>
       </c>
       <c r="B5080" t="n">
-        <v>3314</v>
+        <v>3317</v>
       </c>
       <c r="C5080" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5080" t="inlineStr">
@@ -91877,7 +91877,7 @@
         <v>5079</v>
       </c>
       <c r="B5081" t="n">
-        <v>3315</v>
+        <v>3320</v>
       </c>
       <c r="C5081" t="inlineStr">
         <is>
@@ -91895,11 +91895,11 @@
         <v>5080</v>
       </c>
       <c r="B5082" t="n">
-        <v>3316</v>
+        <v>3321</v>
       </c>
       <c r="C5082" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5082" t="inlineStr">
@@ -91913,7 +91913,7 @@
         <v>5081</v>
       </c>
       <c r="B5083" t="n">
-        <v>3317</v>
+        <v>3321</v>
       </c>
       <c r="C5083" t="inlineStr">
         <is>
@@ -91931,7 +91931,7 @@
         <v>5082</v>
       </c>
       <c r="B5084" t="n">
-        <v>3320</v>
+        <v>3322</v>
       </c>
       <c r="C5084" t="inlineStr">
         <is>
@@ -91949,11 +91949,11 @@
         <v>5083</v>
       </c>
       <c r="B5085" t="n">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="C5085" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5085" t="inlineStr">
@@ -91967,7 +91967,7 @@
         <v>5084</v>
       </c>
       <c r="B5086" t="n">
-        <v>3321</v>
+        <v>3324</v>
       </c>
       <c r="C5086" t="inlineStr">
         <is>
@@ -91985,7 +91985,7 @@
         <v>5085</v>
       </c>
       <c r="B5087" t="n">
-        <v>3322</v>
+        <v>3325</v>
       </c>
       <c r="C5087" t="inlineStr">
         <is>
@@ -92003,11 +92003,11 @@
         <v>5086</v>
       </c>
       <c r="B5088" t="n">
-        <v>3322</v>
+        <v>3326</v>
       </c>
       <c r="C5088" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5088" t="inlineStr">
@@ -92021,11 +92021,11 @@
         <v>5087</v>
       </c>
       <c r="B5089" t="n">
-        <v>3324</v>
+        <v>3326</v>
       </c>
       <c r="C5089" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5089" t="inlineStr">
@@ -92039,7 +92039,7 @@
         <v>5088</v>
       </c>
       <c r="B5090" t="n">
-        <v>3325</v>
+        <v>3328</v>
       </c>
       <c r="C5090" t="inlineStr">
         <is>
@@ -92057,7 +92057,7 @@
         <v>5089</v>
       </c>
       <c r="B5091" t="n">
-        <v>3326</v>
+        <v>3329</v>
       </c>
       <c r="C5091" t="inlineStr">
         <is>
@@ -92075,11 +92075,11 @@
         <v>5090</v>
       </c>
       <c r="B5092" t="n">
-        <v>3326</v>
+        <v>3331</v>
       </c>
       <c r="C5092" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5092" t="inlineStr">
@@ -92093,7 +92093,7 @@
         <v>5091</v>
       </c>
       <c r="B5093" t="n">
-        <v>3328</v>
+        <v>3332</v>
       </c>
       <c r="C5093" t="inlineStr">
         <is>
@@ -92111,7 +92111,7 @@
         <v>5092</v>
       </c>
       <c r="B5094" t="n">
-        <v>3329</v>
+        <v>3333</v>
       </c>
       <c r="C5094" t="inlineStr">
         <is>
@@ -92129,11 +92129,11 @@
         <v>5093</v>
       </c>
       <c r="B5095" t="n">
-        <v>3331</v>
+        <v>3334</v>
       </c>
       <c r="C5095" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5095" t="inlineStr">
@@ -92147,7 +92147,7 @@
         <v>5094</v>
       </c>
       <c r="B5096" t="n">
-        <v>3332</v>
+        <v>3334</v>
       </c>
       <c r="C5096" t="inlineStr">
         <is>
@@ -92165,11 +92165,11 @@
         <v>5095</v>
       </c>
       <c r="B5097" t="n">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="C5097" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5097" t="inlineStr">
@@ -92183,11 +92183,11 @@
         <v>5096</v>
       </c>
       <c r="B5098" t="n">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="C5098" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5098" t="inlineStr">
@@ -92201,11 +92201,11 @@
         <v>5097</v>
       </c>
       <c r="B5099" t="n">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="C5099" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5099" t="inlineStr">
@@ -92219,11 +92219,11 @@
         <v>5098</v>
       </c>
       <c r="B5100" t="n">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="C5100" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5100" t="inlineStr">
@@ -92237,7 +92237,7 @@
         <v>5099</v>
       </c>
       <c r="B5101" t="n">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="C5101" t="inlineStr">
         <is>
@@ -92255,11 +92255,11 @@
         <v>5100</v>
       </c>
       <c r="B5102" t="n">
-        <v>3335</v>
+        <v>3338</v>
       </c>
       <c r="C5102" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5102" t="inlineStr">
@@ -92273,7 +92273,7 @@
         <v>5101</v>
       </c>
       <c r="B5103" t="n">
-        <v>3336</v>
+        <v>3339</v>
       </c>
       <c r="C5103" t="inlineStr">
         <is>
@@ -92291,11 +92291,11 @@
         <v>5102</v>
       </c>
       <c r="B5104" t="n">
-        <v>3337</v>
+        <v>3339</v>
       </c>
       <c r="C5104" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5104" t="inlineStr">
@@ -92309,7 +92309,7 @@
         <v>5103</v>
       </c>
       <c r="B5105" t="n">
-        <v>3338</v>
+        <v>3340</v>
       </c>
       <c r="C5105" t="inlineStr">
         <is>
@@ -92327,7 +92327,7 @@
         <v>5104</v>
       </c>
       <c r="B5106" t="n">
-        <v>3339</v>
+        <v>3341</v>
       </c>
       <c r="C5106" t="inlineStr">
         <is>
@@ -92345,11 +92345,11 @@
         <v>5105</v>
       </c>
       <c r="B5107" t="n">
-        <v>3339</v>
+        <v>3342</v>
       </c>
       <c r="C5107" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5107" t="inlineStr">
@@ -92363,7 +92363,7 @@
         <v>5106</v>
       </c>
       <c r="B5108" t="n">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="C5108" t="inlineStr">
         <is>
@@ -92381,7 +92381,7 @@
         <v>5107</v>
       </c>
       <c r="B5109" t="n">
-        <v>3341</v>
+        <v>3344</v>
       </c>
       <c r="C5109" t="inlineStr">
         <is>
@@ -92399,7 +92399,7 @@
         <v>5108</v>
       </c>
       <c r="B5110" t="n">
-        <v>3342</v>
+        <v>3345</v>
       </c>
       <c r="C5110" t="inlineStr">
         <is>
@@ -92417,7 +92417,7 @@
         <v>5109</v>
       </c>
       <c r="B5111" t="n">
-        <v>3343</v>
+        <v>3346</v>
       </c>
       <c r="C5111" t="inlineStr">
         <is>
@@ -92435,7 +92435,7 @@
         <v>5110</v>
       </c>
       <c r="B5112" t="n">
-        <v>3344</v>
+        <v>3347</v>
       </c>
       <c r="C5112" t="inlineStr">
         <is>
@@ -92453,7 +92453,7 @@
         <v>5111</v>
       </c>
       <c r="B5113" t="n">
-        <v>3345</v>
+        <v>3348</v>
       </c>
       <c r="C5113" t="inlineStr">
         <is>
@@ -92471,7 +92471,7 @@
         <v>5112</v>
       </c>
       <c r="B5114" t="n">
-        <v>3346</v>
+        <v>3350</v>
       </c>
       <c r="C5114" t="inlineStr">
         <is>
@@ -92489,7 +92489,7 @@
         <v>5113</v>
       </c>
       <c r="B5115" t="n">
-        <v>3347</v>
+        <v>3351</v>
       </c>
       <c r="C5115" t="inlineStr">
         <is>
@@ -92507,7 +92507,7 @@
         <v>5114</v>
       </c>
       <c r="B5116" t="n">
-        <v>3348</v>
+        <v>3352</v>
       </c>
       <c r="C5116" t="inlineStr">
         <is>
@@ -92525,11 +92525,11 @@
         <v>5115</v>
       </c>
       <c r="B5117" t="n">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="C5117" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5117" t="inlineStr">
@@ -92543,7 +92543,7 @@
         <v>5116</v>
       </c>
       <c r="B5118" t="n">
-        <v>3351</v>
+        <v>3353</v>
       </c>
       <c r="C5118" t="inlineStr">
         <is>
@@ -92561,7 +92561,7 @@
         <v>5117</v>
       </c>
       <c r="B5119" t="n">
-        <v>3352</v>
+        <v>3354</v>
       </c>
       <c r="C5119" t="inlineStr">
         <is>
@@ -92579,11 +92579,11 @@
         <v>5118</v>
       </c>
       <c r="B5120" t="n">
-        <v>3352</v>
+        <v>3356</v>
       </c>
       <c r="C5120" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5120" t="inlineStr">
@@ -92597,11 +92597,11 @@
         <v>5119</v>
       </c>
       <c r="B5121" t="n">
-        <v>3353</v>
+        <v>3357</v>
       </c>
       <c r="C5121" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D5121" t="inlineStr">
@@ -92615,11 +92615,11 @@
         <v>5120</v>
       </c>
       <c r="B5122" t="n">
-        <v>3354</v>
+        <v>3357</v>
       </c>
       <c r="C5122" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5122" t="inlineStr">
@@ -92633,11 +92633,11 @@
         <v>5121</v>
       </c>
       <c r="B5123" t="n">
-        <v>3355</v>
+        <v>3357</v>
       </c>
       <c r="C5123" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5123" t="inlineStr">
@@ -92651,7 +92651,7 @@
         <v>5122</v>
       </c>
       <c r="B5124" t="n">
-        <v>3356</v>
+        <v>3358</v>
       </c>
       <c r="C5124" t="inlineStr">
         <is>
@@ -92669,11 +92669,11 @@
         <v>5123</v>
       </c>
       <c r="B5125" t="n">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="C5125" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5125" t="inlineStr">
@@ -92687,11 +92687,11 @@
         <v>5124</v>
       </c>
       <c r="B5126" t="n">
-        <v>3357</v>
+        <v>3360</v>
       </c>
       <c r="C5126" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5126" t="inlineStr">
@@ -92705,7 +92705,7 @@
         <v>5125</v>
       </c>
       <c r="B5127" t="n">
-        <v>3357</v>
+        <v>3361</v>
       </c>
       <c r="C5127" t="inlineStr">
         <is>
@@ -92723,7 +92723,7 @@
         <v>5126</v>
       </c>
       <c r="B5128" t="n">
-        <v>3358</v>
+        <v>3362</v>
       </c>
       <c r="C5128" t="inlineStr">
         <is>
@@ -92741,7 +92741,7 @@
         <v>5127</v>
       </c>
       <c r="B5129" t="n">
-        <v>3359</v>
+        <v>3363</v>
       </c>
       <c r="C5129" t="inlineStr">
         <is>
@@ -92759,11 +92759,11 @@
         <v>5128</v>
       </c>
       <c r="B5130" t="n">
-        <v>3360</v>
+        <v>3364</v>
       </c>
       <c r="C5130" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D5130" t="inlineStr">
@@ -92777,11 +92777,11 @@
         <v>5129</v>
       </c>
       <c r="B5131" t="n">
-        <v>3361</v>
+        <v>3364</v>
       </c>
       <c r="C5131" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5131" t="inlineStr">
@@ -92795,7 +92795,7 @@
         <v>5130</v>
       </c>
       <c r="B5132" t="n">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="C5132" t="inlineStr">
         <is>
@@ -92813,7 +92813,7 @@
         <v>5131</v>
       </c>
       <c r="B5133" t="n">
-        <v>3363</v>
+        <v>3365</v>
       </c>
       <c r="C5133" t="inlineStr">
         <is>
@@ -92831,11 +92831,11 @@
         <v>5132</v>
       </c>
       <c r="B5134" t="n">
-        <v>3364</v>
+        <v>3366</v>
       </c>
       <c r="C5134" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5134" t="inlineStr">
@@ -92849,11 +92849,11 @@
         <v>5133</v>
       </c>
       <c r="B5135" t="n">
-        <v>3364</v>
+        <v>3367</v>
       </c>
       <c r="C5135" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5135" t="inlineStr">
@@ -92867,7 +92867,7 @@
         <v>5134</v>
       </c>
       <c r="B5136" t="n">
-        <v>3364</v>
+        <v>3368</v>
       </c>
       <c r="C5136" t="inlineStr">
         <is>
@@ -92885,7 +92885,7 @@
         <v>5135</v>
       </c>
       <c r="B5137" t="n">
-        <v>3365</v>
+        <v>3369</v>
       </c>
       <c r="C5137" t="inlineStr">
         <is>
@@ -92903,7 +92903,7 @@
         <v>5136</v>
       </c>
       <c r="B5138" t="n">
-        <v>3366</v>
+        <v>3370</v>
       </c>
       <c r="C5138" t="inlineStr">
         <is>
@@ -92921,7 +92921,7 @@
         <v>5137</v>
       </c>
       <c r="B5139" t="n">
-        <v>3367</v>
+        <v>3373</v>
       </c>
       <c r="C5139" t="inlineStr">
         <is>
@@ -92939,7 +92939,7 @@
         <v>5138</v>
       </c>
       <c r="B5140" t="n">
-        <v>3368</v>
+        <v>3374</v>
       </c>
       <c r="C5140" t="inlineStr">
         <is>
@@ -92957,7 +92957,7 @@
         <v>5139</v>
       </c>
       <c r="B5141" t="n">
-        <v>3369</v>
+        <v>3376</v>
       </c>
       <c r="C5141" t="inlineStr">
         <is>
@@ -92975,7 +92975,7 @@
         <v>5140</v>
       </c>
       <c r="B5142" t="n">
-        <v>3370</v>
+        <v>3377</v>
       </c>
       <c r="C5142" t="inlineStr">
         <is>
@@ -92993,7 +92993,7 @@
         <v>5141</v>
       </c>
       <c r="B5143" t="n">
-        <v>3373</v>
+        <v>3378</v>
       </c>
       <c r="C5143" t="inlineStr">
         <is>
@@ -93011,7 +93011,7 @@
         <v>5142</v>
       </c>
       <c r="B5144" t="n">
-        <v>3374</v>
+        <v>3379</v>
       </c>
       <c r="C5144" t="inlineStr">
         <is>
@@ -93029,7 +93029,7 @@
         <v>5143</v>
       </c>
       <c r="B5145" t="n">
-        <v>3376</v>
+        <v>3380</v>
       </c>
       <c r="C5145" t="inlineStr">
         <is>
@@ -93047,7 +93047,7 @@
         <v>5144</v>
       </c>
       <c r="B5146" t="n">
-        <v>3377</v>
+        <v>3381</v>
       </c>
       <c r="C5146" t="inlineStr">
         <is>
@@ -93065,7 +93065,7 @@
         <v>5145</v>
       </c>
       <c r="B5147" t="n">
-        <v>3378</v>
+        <v>3382</v>
       </c>
       <c r="C5147" t="inlineStr">
         <is>
@@ -93083,7 +93083,7 @@
         <v>5146</v>
       </c>
       <c r="B5148" t="n">
-        <v>3379</v>
+        <v>3383</v>
       </c>
       <c r="C5148" t="inlineStr">
         <is>
@@ -93101,7 +93101,7 @@
         <v>5147</v>
       </c>
       <c r="B5149" t="n">
-        <v>3380</v>
+        <v>3385</v>
       </c>
       <c r="C5149" t="inlineStr">
         <is>
@@ -93119,7 +93119,7 @@
         <v>5148</v>
       </c>
       <c r="B5150" t="n">
-        <v>3381</v>
+        <v>3386</v>
       </c>
       <c r="C5150" t="inlineStr">
         <is>
@@ -93137,11 +93137,11 @@
         <v>5149</v>
       </c>
       <c r="B5151" t="n">
-        <v>3382</v>
+        <v>3387</v>
       </c>
       <c r="C5151" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5151" t="inlineStr">
@@ -93155,7 +93155,7 @@
         <v>5150</v>
       </c>
       <c r="B5152" t="n">
-        <v>3383</v>
+        <v>3387</v>
       </c>
       <c r="C5152" t="inlineStr">
         <is>
@@ -93173,11 +93173,11 @@
         <v>5151</v>
       </c>
       <c r="B5153" t="n">
-        <v>3385</v>
+        <v>3388</v>
       </c>
       <c r="C5153" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5153" t="inlineStr">
@@ -93191,7 +93191,7 @@
         <v>5152</v>
       </c>
       <c r="B5154" t="n">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="C5154" t="inlineStr">
         <is>
@@ -93209,11 +93209,11 @@
         <v>5153</v>
       </c>
       <c r="B5155" t="n">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="C5155" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5155" t="inlineStr">
@@ -93227,11 +93227,11 @@
         <v>5154</v>
       </c>
       <c r="B5156" t="n">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="C5156" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D5156" t="inlineStr">
@@ -93245,11 +93245,11 @@
         <v>5155</v>
       </c>
       <c r="B5157" t="n">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="C5157" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5157" t="inlineStr">
@@ -93263,7 +93263,7 @@
         <v>5156</v>
       </c>
       <c r="B5158" t="n">
-        <v>3388</v>
+        <v>3391</v>
       </c>
       <c r="C5158" t="inlineStr">
         <is>
@@ -93281,11 +93281,11 @@
         <v>5157</v>
       </c>
       <c r="B5159" t="n">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="C5159" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5159" t="inlineStr">
@@ -93299,11 +93299,11 @@
         <v>5158</v>
       </c>
       <c r="B5160" t="n">
-        <v>3389</v>
+        <v>3392</v>
       </c>
       <c r="C5160" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5160" t="inlineStr">
@@ -93317,7 +93317,7 @@
         <v>5159</v>
       </c>
       <c r="B5161" t="n">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="C5161" t="inlineStr">
         <is>
@@ -93335,7 +93335,7 @@
         <v>5160</v>
       </c>
       <c r="B5162" t="n">
-        <v>3391</v>
+        <v>3394</v>
       </c>
       <c r="C5162" t="inlineStr">
         <is>
@@ -93353,11 +93353,11 @@
         <v>5161</v>
       </c>
       <c r="B5163" t="n">
-        <v>3391</v>
+        <v>3395</v>
       </c>
       <c r="C5163" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5163" t="inlineStr">
@@ -93371,11 +93371,11 @@
         <v>5162</v>
       </c>
       <c r="B5164" t="n">
-        <v>3392</v>
+        <v>3396</v>
       </c>
       <c r="C5164" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5164" t="inlineStr">
@@ -93389,7 +93389,7 @@
         <v>5163</v>
       </c>
       <c r="B5165" t="n">
-        <v>3393</v>
+        <v>3396</v>
       </c>
       <c r="C5165" t="inlineStr">
         <is>
@@ -93407,7 +93407,7 @@
         <v>5164</v>
       </c>
       <c r="B5166" t="n">
-        <v>3394</v>
+        <v>3397</v>
       </c>
       <c r="C5166" t="inlineStr">
         <is>
@@ -93425,11 +93425,11 @@
         <v>5165</v>
       </c>
       <c r="B5167" t="n">
-        <v>3395</v>
+        <v>3398</v>
       </c>
       <c r="C5167" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5167" t="inlineStr">
@@ -93443,11 +93443,11 @@
         <v>5166</v>
       </c>
       <c r="B5168" t="n">
-        <v>3396</v>
+        <v>3398</v>
       </c>
       <c r="C5168" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5168" t="inlineStr">
@@ -93461,7 +93461,7 @@
         <v>5167</v>
       </c>
       <c r="B5169" t="n">
-        <v>3396</v>
+        <v>3400</v>
       </c>
       <c r="C5169" t="inlineStr">
         <is>
@@ -93479,7 +93479,7 @@
         <v>5168</v>
       </c>
       <c r="B5170" t="n">
-        <v>3397</v>
+        <v>3401</v>
       </c>
       <c r="C5170" t="inlineStr">
         <is>
@@ -93497,11 +93497,11 @@
         <v>5169</v>
       </c>
       <c r="B5171" t="n">
-        <v>3398</v>
+        <v>3402</v>
       </c>
       <c r="C5171" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5171" t="inlineStr">
@@ -93515,7 +93515,7 @@
         <v>5170</v>
       </c>
       <c r="B5172" t="n">
-        <v>3398</v>
+        <v>3403</v>
       </c>
       <c r="C5172" t="inlineStr">
         <is>
@@ -93533,7 +93533,7 @@
         <v>5171</v>
       </c>
       <c r="B5173" t="n">
-        <v>3400</v>
+        <v>3404</v>
       </c>
       <c r="C5173" t="inlineStr">
         <is>
@@ -93551,7 +93551,7 @@
         <v>5172</v>
       </c>
       <c r="B5174" t="n">
-        <v>3401</v>
+        <v>3405</v>
       </c>
       <c r="C5174" t="inlineStr">
         <is>
@@ -93569,11 +93569,11 @@
         <v>5173</v>
       </c>
       <c r="B5175" t="n">
-        <v>3402</v>
+        <v>3405</v>
       </c>
       <c r="C5175" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5175" t="inlineStr">
@@ -93587,7 +93587,7 @@
         <v>5174</v>
       </c>
       <c r="B5176" t="n">
-        <v>3403</v>
+        <v>3406</v>
       </c>
       <c r="C5176" t="inlineStr">
         <is>
@@ -93605,7 +93605,7 @@
         <v>5175</v>
       </c>
       <c r="B5177" t="n">
-        <v>3404</v>
+        <v>3407</v>
       </c>
       <c r="C5177" t="inlineStr">
         <is>
@@ -93623,7 +93623,7 @@
         <v>5176</v>
       </c>
       <c r="B5178" t="n">
-        <v>3405</v>
+        <v>3408</v>
       </c>
       <c r="C5178" t="inlineStr">
         <is>
@@ -93641,7 +93641,7 @@
         <v>5177</v>
       </c>
       <c r="B5179" t="n">
-        <v>3405</v>
+        <v>3408</v>
       </c>
       <c r="C5179" t="inlineStr">
         <is>
@@ -93659,7 +93659,7 @@
         <v>5178</v>
       </c>
       <c r="B5180" t="n">
-        <v>3406</v>
+        <v>3409</v>
       </c>
       <c r="C5180" t="inlineStr">
         <is>
@@ -93677,11 +93677,11 @@
         <v>5179</v>
       </c>
       <c r="B5181" t="n">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="C5181" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5181" t="inlineStr">
@@ -93695,7 +93695,7 @@
         <v>5180</v>
       </c>
       <c r="B5182" t="n">
-        <v>3408</v>
+        <v>3411</v>
       </c>
       <c r="C5182" t="inlineStr">
         <is>
@@ -93713,11 +93713,11 @@
         <v>5181</v>
       </c>
       <c r="B5183" t="n">
-        <v>3408</v>
+        <v>3413</v>
       </c>
       <c r="C5183" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5183" t="inlineStr">
@@ -93731,7 +93731,7 @@
         <v>5182</v>
       </c>
       <c r="B5184" t="n">
-        <v>3409</v>
+        <v>3414</v>
       </c>
       <c r="C5184" t="inlineStr">
         <is>
@@ -93749,7 +93749,7 @@
         <v>5183</v>
       </c>
       <c r="B5185" t="n">
-        <v>3409</v>
+        <v>3417</v>
       </c>
       <c r="C5185" t="inlineStr">
         <is>
@@ -93767,7 +93767,7 @@
         <v>5184</v>
       </c>
       <c r="B5186" t="n">
-        <v>3411</v>
+        <v>3419</v>
       </c>
       <c r="C5186" t="inlineStr">
         <is>
@@ -93785,11 +93785,11 @@
         <v>5185</v>
       </c>
       <c r="B5187" t="n">
-        <v>3413</v>
+        <v>3421</v>
       </c>
       <c r="C5187" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D5187" t="inlineStr">
@@ -93803,11 +93803,11 @@
         <v>5186</v>
       </c>
       <c r="B5188" t="n">
-        <v>3414</v>
+        <v>3421</v>
       </c>
       <c r="C5188" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5188" t="inlineStr">
@@ -93821,11 +93821,11 @@
         <v>5187</v>
       </c>
       <c r="B5189" t="n">
-        <v>3417</v>
+        <v>3421</v>
       </c>
       <c r="C5189" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5189" t="inlineStr">
@@ -93839,7 +93839,7 @@
         <v>5188</v>
       </c>
       <c r="B5190" t="n">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="C5190" t="inlineStr">
         <is>
@@ -93857,11 +93857,11 @@
         <v>5189</v>
       </c>
       <c r="B5191" t="n">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="C5191" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5191" t="inlineStr">
@@ -93875,7 +93875,7 @@
         <v>5190</v>
       </c>
       <c r="B5192" t="n">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="C5192" t="inlineStr">
         <is>
@@ -93893,7 +93893,7 @@
         <v>5191</v>
       </c>
       <c r="B5193" t="n">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="C5193" t="inlineStr">
         <is>
@@ -93911,11 +93911,11 @@
         <v>5192</v>
       </c>
       <c r="B5194" t="n">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="C5194" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5194" t="inlineStr">
@@ -93929,11 +93929,11 @@
         <v>5193</v>
       </c>
       <c r="B5195" t="n">
-        <v>3422</v>
+        <v>3425</v>
       </c>
       <c r="C5195" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5195" t="inlineStr">
@@ -93947,11 +93947,11 @@
         <v>5194</v>
       </c>
       <c r="B5196" t="n">
-        <v>3423</v>
+        <v>3425</v>
       </c>
       <c r="C5196" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5196" t="inlineStr">
@@ -93965,7 +93965,7 @@
         <v>5195</v>
       </c>
       <c r="B5197" t="n">
-        <v>3423</v>
+        <v>3426</v>
       </c>
       <c r="C5197" t="inlineStr">
         <is>
@@ -93983,11 +93983,11 @@
         <v>5196</v>
       </c>
       <c r="B5198" t="n">
-        <v>3423</v>
+        <v>3427</v>
       </c>
       <c r="C5198" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5198" t="inlineStr">
@@ -94001,7 +94001,7 @@
         <v>5197</v>
       </c>
       <c r="B5199" t="n">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="C5199" t="inlineStr">
         <is>
@@ -94019,11 +94019,11 @@
         <v>5198</v>
       </c>
       <c r="B5200" t="n">
-        <v>3425</v>
+        <v>3429</v>
       </c>
       <c r="C5200" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5200" t="inlineStr">
@@ -94037,7 +94037,7 @@
         <v>5199</v>
       </c>
       <c r="B5201" t="n">
-        <v>3426</v>
+        <v>3430</v>
       </c>
       <c r="C5201" t="inlineStr">
         <is>
@@ -94055,7 +94055,7 @@
         <v>5200</v>
       </c>
       <c r="B5202" t="n">
-        <v>3427</v>
+        <v>3431</v>
       </c>
       <c r="C5202" t="inlineStr">
         <is>
@@ -94073,7 +94073,7 @@
         <v>5201</v>
       </c>
       <c r="B5203" t="n">
-        <v>3428</v>
+        <v>3432</v>
       </c>
       <c r="C5203" t="inlineStr">
         <is>
@@ -94091,11 +94091,11 @@
         <v>5202</v>
       </c>
       <c r="B5204" t="n">
-        <v>3429</v>
+        <v>3433</v>
       </c>
       <c r="C5204" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5204" t="inlineStr">
@@ -94109,7 +94109,7 @@
         <v>5203</v>
       </c>
       <c r="B5205" t="n">
-        <v>3430</v>
+        <v>3434</v>
       </c>
       <c r="C5205" t="inlineStr">
         <is>
@@ -94127,7 +94127,7 @@
         <v>5204</v>
       </c>
       <c r="B5206" t="n">
-        <v>3431</v>
+        <v>3436</v>
       </c>
       <c r="C5206" t="inlineStr">
         <is>
@@ -94145,7 +94145,7 @@
         <v>5205</v>
       </c>
       <c r="B5207" t="n">
-        <v>3432</v>
+        <v>3438</v>
       </c>
       <c r="C5207" t="inlineStr">
         <is>
@@ -94163,11 +94163,11 @@
         <v>5206</v>
       </c>
       <c r="B5208" t="n">
-        <v>3433</v>
+        <v>3439</v>
       </c>
       <c r="C5208" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5208" t="inlineStr">
@@ -94181,7 +94181,7 @@
         <v>5207</v>
       </c>
       <c r="B5209" t="n">
-        <v>3434</v>
+        <v>3440</v>
       </c>
       <c r="C5209" t="inlineStr">
         <is>
@@ -94199,11 +94199,11 @@
         <v>5208</v>
       </c>
       <c r="B5210" t="n">
-        <v>3435</v>
+        <v>3441</v>
       </c>
       <c r="C5210" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5210" t="inlineStr">
@@ -94217,11 +94217,11 @@
         <v>5209</v>
       </c>
       <c r="B5211" t="n">
-        <v>3435</v>
+        <v>3441</v>
       </c>
       <c r="C5211" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5211" t="inlineStr">
@@ -94235,11 +94235,11 @@
         <v>5210</v>
       </c>
       <c r="B5212" t="n">
-        <v>3435</v>
+        <v>3441</v>
       </c>
       <c r="C5212" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D5212" t="inlineStr">
@@ -94253,11 +94253,11 @@
         <v>5211</v>
       </c>
       <c r="B5213" t="n">
-        <v>3435</v>
+        <v>3442</v>
       </c>
       <c r="C5213" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5213" t="inlineStr">
@@ -94271,7 +94271,7 @@
         <v>5212</v>
       </c>
       <c r="B5214" t="n">
-        <v>3435</v>
+        <v>3443</v>
       </c>
       <c r="C5214" t="inlineStr">
         <is>
@@ -94289,11 +94289,11 @@
         <v>5213</v>
       </c>
       <c r="B5215" t="n">
-        <v>3435</v>
+        <v>3445</v>
       </c>
       <c r="C5215" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5215" t="inlineStr">
@@ -94307,11 +94307,11 @@
         <v>5214</v>
       </c>
       <c r="B5216" t="n">
-        <v>3435</v>
+        <v>3445</v>
       </c>
       <c r="C5216" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5216" t="inlineStr">
@@ -94325,7 +94325,7 @@
         <v>5215</v>
       </c>
       <c r="B5217" t="n">
-        <v>3436</v>
+        <v>3447</v>
       </c>
       <c r="C5217" t="inlineStr">
         <is>
@@ -94343,7 +94343,7 @@
         <v>5216</v>
       </c>
       <c r="B5218" t="n">
-        <v>3438</v>
+        <v>3448</v>
       </c>
       <c r="C5218" t="inlineStr">
         <is>
@@ -94361,7 +94361,7 @@
         <v>5217</v>
       </c>
       <c r="B5219" t="n">
-        <v>3439</v>
+        <v>3449</v>
       </c>
       <c r="C5219" t="inlineStr">
         <is>
@@ -94379,7 +94379,7 @@
         <v>5218</v>
       </c>
       <c r="B5220" t="n">
-        <v>3440</v>
+        <v>3451</v>
       </c>
       <c r="C5220" t="inlineStr">
         <is>
@@ -94397,11 +94397,11 @@
         <v>5219</v>
       </c>
       <c r="B5221" t="n">
-        <v>3441</v>
+        <v>3451</v>
       </c>
       <c r="C5221" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5221" t="inlineStr">
@@ -94415,7 +94415,7 @@
         <v>5220</v>
       </c>
       <c r="B5222" t="n">
-        <v>3441</v>
+        <v>3454</v>
       </c>
       <c r="C5222" t="inlineStr">
         <is>
@@ -94433,11 +94433,11 @@
         <v>5221</v>
       </c>
       <c r="B5223" t="n">
-        <v>3441</v>
+        <v>3458</v>
       </c>
       <c r="C5223" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5223" t="inlineStr">
@@ -94451,7 +94451,7 @@
         <v>5222</v>
       </c>
       <c r="B5224" t="n">
-        <v>3442</v>
+        <v>3459</v>
       </c>
       <c r="C5224" t="inlineStr">
         <is>
@@ -94469,11 +94469,11 @@
         <v>5223</v>
       </c>
       <c r="B5225" t="n">
-        <v>3443</v>
+        <v>3459</v>
       </c>
       <c r="C5225" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D5225" t="inlineStr">
@@ -94487,11 +94487,11 @@
         <v>5224</v>
       </c>
       <c r="B5226" t="n">
-        <v>3445</v>
+        <v>3460</v>
       </c>
       <c r="C5226" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5226" t="inlineStr">
@@ -94505,7 +94505,7 @@
         <v>5225</v>
       </c>
       <c r="B5227" t="n">
-        <v>3445</v>
+        <v>3461</v>
       </c>
       <c r="C5227" t="inlineStr">
         <is>
@@ -94523,7 +94523,7 @@
         <v>5226</v>
       </c>
       <c r="B5228" t="n">
-        <v>3447</v>
+        <v>3462</v>
       </c>
       <c r="C5228" t="inlineStr">
         <is>
@@ -94541,11 +94541,11 @@
         <v>5227</v>
       </c>
       <c r="B5229" t="n">
-        <v>3448</v>
+        <v>3463</v>
       </c>
       <c r="C5229" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5229" t="inlineStr">
@@ -94559,7 +94559,7 @@
         <v>5228</v>
       </c>
       <c r="B5230" t="n">
-        <v>3449</v>
+        <v>3463</v>
       </c>
       <c r="C5230" t="inlineStr">
         <is>
@@ -94577,11 +94577,11 @@
         <v>5229</v>
       </c>
       <c r="B5231" t="n">
-        <v>3450</v>
+        <v>3470</v>
       </c>
       <c r="C5231" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5231" t="inlineStr">
@@ -94595,7 +94595,7 @@
         <v>5230</v>
       </c>
       <c r="B5232" t="n">
-        <v>3451</v>
+        <v>3472</v>
       </c>
       <c r="C5232" t="inlineStr">
         <is>
@@ -94613,11 +94613,11 @@
         <v>5231</v>
       </c>
       <c r="B5233" t="n">
-        <v>3451</v>
+        <v>3473</v>
       </c>
       <c r="C5233" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5233" t="inlineStr">
@@ -94631,11 +94631,11 @@
         <v>5232</v>
       </c>
       <c r="B5234" t="n">
-        <v>3454</v>
+        <v>3473</v>
       </c>
       <c r="C5234" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5234" t="inlineStr">
@@ -94649,7 +94649,7 @@
         <v>5233</v>
       </c>
       <c r="B5235" t="n">
-        <v>3458</v>
+        <v>3474</v>
       </c>
       <c r="C5235" t="inlineStr">
         <is>
@@ -94667,11 +94667,11 @@
         <v>5234</v>
       </c>
       <c r="B5236" t="n">
-        <v>3459</v>
+        <v>3475</v>
       </c>
       <c r="C5236" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5236" t="inlineStr">
@@ -94685,11 +94685,11 @@
         <v>5235</v>
       </c>
       <c r="B5237" t="n">
-        <v>3459</v>
+        <v>3475</v>
       </c>
       <c r="C5237" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5237" t="inlineStr">
@@ -94703,11 +94703,11 @@
         <v>5236</v>
       </c>
       <c r="B5238" t="n">
-        <v>3460</v>
+        <v>3476</v>
       </c>
       <c r="C5238" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5238" t="inlineStr">
@@ -94721,7 +94721,7 @@
         <v>5237</v>
       </c>
       <c r="B5239" t="n">
-        <v>3461</v>
+        <v>3476</v>
       </c>
       <c r="C5239" t="inlineStr">
         <is>
@@ -94739,7 +94739,7 @@
         <v>5238</v>
       </c>
       <c r="B5240" t="n">
-        <v>3462</v>
+        <v>3477</v>
       </c>
       <c r="C5240" t="inlineStr">
         <is>
@@ -94757,7 +94757,7 @@
         <v>5239</v>
       </c>
       <c r="B5241" t="n">
-        <v>3463</v>
+        <v>3478</v>
       </c>
       <c r="C5241" t="inlineStr">
         <is>
@@ -94775,7 +94775,7 @@
         <v>5240</v>
       </c>
       <c r="B5242" t="n">
-        <v>3463</v>
+        <v>3478</v>
       </c>
       <c r="C5242" t="inlineStr">
         <is>
@@ -94793,11 +94793,11 @@
         <v>5241</v>
       </c>
       <c r="B5243" t="n">
-        <v>3466</v>
+        <v>3478</v>
       </c>
       <c r="C5243" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5243" t="inlineStr">
@@ -94811,11 +94811,11 @@
         <v>5242</v>
       </c>
       <c r="B5244" t="n">
-        <v>3470</v>
+        <v>3480</v>
       </c>
       <c r="C5244" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5244" t="inlineStr">
@@ -94829,7 +94829,7 @@
         <v>5243</v>
       </c>
       <c r="B5245" t="n">
-        <v>3472</v>
+        <v>3480</v>
       </c>
       <c r="C5245" t="inlineStr">
         <is>
@@ -94847,11 +94847,11 @@
         <v>5244</v>
       </c>
       <c r="B5246" t="n">
-        <v>3473</v>
+        <v>3481</v>
       </c>
       <c r="C5246" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5246" t="inlineStr">
@@ -94865,11 +94865,11 @@
         <v>5245</v>
       </c>
       <c r="B5247" t="n">
-        <v>3473</v>
+        <v>3481</v>
       </c>
       <c r="C5247" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5247" t="inlineStr">
@@ -94883,7 +94883,7 @@
         <v>5246</v>
       </c>
       <c r="B5248" t="n">
-        <v>3474</v>
+        <v>3483</v>
       </c>
       <c r="C5248" t="inlineStr">
         <is>
@@ -94901,11 +94901,11 @@
         <v>5247</v>
       </c>
       <c r="B5249" t="n">
-        <v>3475</v>
+        <v>3484</v>
       </c>
       <c r="C5249" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5249" t="inlineStr">
@@ -94919,11 +94919,11 @@
         <v>5248</v>
       </c>
       <c r="B5250" t="n">
-        <v>3475</v>
+        <v>3484</v>
       </c>
       <c r="C5250" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5250" t="inlineStr">
@@ -94937,7 +94937,7 @@
         <v>5249</v>
       </c>
       <c r="B5251" t="n">
-        <v>3476</v>
+        <v>3485</v>
       </c>
       <c r="C5251" t="inlineStr">
         <is>
@@ -94955,7 +94955,7 @@
         <v>5250</v>
       </c>
       <c r="B5252" t="n">
-        <v>3476</v>
+        <v>3485</v>
       </c>
       <c r="C5252" t="inlineStr">
         <is>
@@ -94973,7 +94973,7 @@
         <v>5251</v>
       </c>
       <c r="B5253" t="n">
-        <v>3477</v>
+        <v>3487</v>
       </c>
       <c r="C5253" t="inlineStr">
         <is>
@@ -94991,11 +94991,11 @@
         <v>5252</v>
       </c>
       <c r="B5254" t="n">
-        <v>3478</v>
+        <v>3487</v>
       </c>
       <c r="C5254" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5254" t="inlineStr">
@@ -95009,11 +95009,11 @@
         <v>5253</v>
       </c>
       <c r="B5255" t="n">
-        <v>3478</v>
+        <v>3487</v>
       </c>
       <c r="C5255" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D5255" t="inlineStr">
@@ -95027,11 +95027,11 @@
         <v>5254</v>
       </c>
       <c r="B5256" t="n">
-        <v>3478</v>
+        <v>3490</v>
       </c>
       <c r="C5256" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D5256" t="inlineStr">
@@ -95045,11 +95045,11 @@
         <v>5255</v>
       </c>
       <c r="B5257" t="n">
-        <v>3480</v>
+        <v>3490</v>
       </c>
       <c r="C5257" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5257" t="inlineStr">
@@ -95063,7 +95063,7 @@
         <v>5256</v>
       </c>
       <c r="B5258" t="n">
-        <v>3480</v>
+        <v>3491</v>
       </c>
       <c r="C5258" t="inlineStr">
         <is>
@@ -95081,11 +95081,11 @@
         <v>5257</v>
       </c>
       <c r="B5259" t="n">
-        <v>3481</v>
+        <v>3491</v>
       </c>
       <c r="C5259" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5259" t="inlineStr">
@@ -95099,7 +95099,7 @@
         <v>5258</v>
       </c>
       <c r="B5260" t="n">
-        <v>3481</v>
+        <v>3494</v>
       </c>
       <c r="C5260" t="inlineStr">
         <is>
@@ -95107,240 +95107,6 @@
         </is>
       </c>
       <c r="D5260" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5261">
-      <c r="A5261" s="1" t="n">
-        <v>5259</v>
-      </c>
-      <c r="B5261" t="n">
-        <v>3483</v>
-      </c>
-      <c r="C5261" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D5261" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5262">
-      <c r="A5262" s="1" t="n">
-        <v>5260</v>
-      </c>
-      <c r="B5262" t="n">
-        <v>3484</v>
-      </c>
-      <c r="C5262" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D5262" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5263">
-      <c r="A5263" s="1" t="n">
-        <v>5261</v>
-      </c>
-      <c r="B5263" t="n">
-        <v>3484</v>
-      </c>
-      <c r="C5263" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D5263" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5264">
-      <c r="A5264" s="1" t="n">
-        <v>5262</v>
-      </c>
-      <c r="B5264" t="n">
-        <v>3485</v>
-      </c>
-      <c r="C5264" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D5264" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5265">
-      <c r="A5265" s="1" t="n">
-        <v>5263</v>
-      </c>
-      <c r="B5265" t="n">
-        <v>3485</v>
-      </c>
-      <c r="C5265" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D5265" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5266">
-      <c r="A5266" s="1" t="n">
-        <v>5264</v>
-      </c>
-      <c r="B5266" t="n">
-        <v>3487</v>
-      </c>
-      <c r="C5266" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D5266" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5267">
-      <c r="A5267" s="1" t="n">
-        <v>5265</v>
-      </c>
-      <c r="B5267" t="n">
-        <v>3487</v>
-      </c>
-      <c r="C5267" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D5267" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5268">
-      <c r="A5268" s="1" t="n">
-        <v>5266</v>
-      </c>
-      <c r="B5268" t="n">
-        <v>3487</v>
-      </c>
-      <c r="C5268" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D5268" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5269">
-      <c r="A5269" s="1" t="n">
-        <v>5267</v>
-      </c>
-      <c r="B5269" t="n">
-        <v>3490</v>
-      </c>
-      <c r="C5269" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D5269" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5270">
-      <c r="A5270" s="1" t="n">
-        <v>5268</v>
-      </c>
-      <c r="B5270" t="n">
-        <v>3490</v>
-      </c>
-      <c r="C5270" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D5270" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5271">
-      <c r="A5271" s="1" t="n">
-        <v>5269</v>
-      </c>
-      <c r="B5271" t="n">
-        <v>3491</v>
-      </c>
-      <c r="C5271" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D5271" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5272">
-      <c r="A5272" s="1" t="n">
-        <v>5270</v>
-      </c>
-      <c r="B5272" t="n">
-        <v>3491</v>
-      </c>
-      <c r="C5272" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D5272" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5273">
-      <c r="A5273" s="1" t="n">
-        <v>5271</v>
-      </c>
-      <c r="B5273" t="n">
-        <v>3494</v>
-      </c>
-      <c r="C5273" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D5273" t="inlineStr">
         <is>
           <t>passed</t>
         </is>

--- a/Datasets/erreurs_999.xlsx
+++ b/Datasets/erreurs_999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:D324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,47 +455,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -504,27 +473,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>argument of type 'float' is not iterable</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 150, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 93, in get_metadata_from_link
-    elif source == ScienceDirect or source == 'sciencedirect' or 'Elsevier' in source:
-                                                                 ^^^^^^^^^^^^^^^^^^^^
-TypeError: argument of type 'float' is not iterable
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -533,47 +491,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -582,47 +509,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -631,47 +527,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -680,47 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -729,47 +563,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -778,29 +581,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[Errno 36] File name too long: '/media/ggenois/Samsung USB/Projet Curation des métadonnées/HTML extracted/2024-10-09_I²MTC, 2019 IEEE International Instrumentation &amp; Measurement Technology Conference %3A Discovering New Horizons in Instrumentation and Measurement %3A 2019 conference proceedings %3A the Lords of the IMS%3A Expanding the Frontiers of Metrology Innovations %3A Grand Millennium Auckland, Auckland, New Zealand, May 20-23, 2019_02.html'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 150, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 95, in get_metadata_from_link
-    save_extracted_html(title + "_02", html)
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 160, in save_extracted_html
-    with open(f"{EXTRACTED_PATH}/HTML extracted/{datetime.today().strftime('%Y-%m-%d')}_{formated_link}.html", 'wb') as f:
-         ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-OSError: [Errno 36] File name too long: '/media/ggenois/Samsung USB/Projet Curation des métadonnées/HTML extracted/2024-10-09_I²MTC, 2019 IEEE International Instrumentation &amp; Measurement Technology Conference %3A Discovering New Horizons in Instrumentation and Measurement %3A 2019 conference proceedings %3A the Lords of the IMS%3A Expanding the Frontiers of Metrology Innovations %3A Grand Millennium Auckland, Auckland, New Zealand, May 20-23, 2019_02.html'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -809,47 +599,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -858,47 +617,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -907,47 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -956,47 +653,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1005,47 +671,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1054,47 +689,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1103,47 +707,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1152,47 +725,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1201,47 +743,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1250,47 +761,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1299,47 +779,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1348,47 +797,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1397,27 +815,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>argument of type 'float' is not iterable</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 150, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 93, in get_metadata_from_link
-    elif source == ScienceDirect or source == 'sciencedirect' or 'Elsevier' in source:
-                                                                 ^^^^^^^^^^^^^^^^^^^^
-TypeError: argument of type 'float' is not iterable
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1426,47 +833,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1475,47 +851,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1524,47 +869,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1573,47 +887,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1622,47 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1671,11 +923,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1689,47 +941,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1738,47 +959,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1787,47 +977,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1836,47 +995,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1885,47 +1013,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1934,47 +1031,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1983,47 +1049,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2032,47 +1067,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2081,47 +1085,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2130,47 +1103,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 138, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_sciencedirect(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 406, in get_metadata_from_html_sciencedirect
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher,
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2179,11 +1121,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2197,11 +1139,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2215,47 +1157,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2264,27 +1175,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>argument of type 'float' is not iterable</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 150, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 93, in get_metadata_from_link
-    elif source == ScienceDirect or source == 'sciencedirect' or 'Elsevier' in source:
-                                                                 ^^^^^^^^^^^^^^^^^^^^
-TypeError: argument of type 'float' is not iterable
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2293,11 +1193,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2311,7 +1211,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2329,11 +1229,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2347,11 +1247,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2365,11 +1265,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2383,11 +1283,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2401,16 +1301,51 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Too many commas in 'Siberian Federal University, 79, Svobodny pr., Krasnoyarsk'</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 50, in get_from_already_extract
+    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
+                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 170, in get_metadata_from_already_extract
+    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
+    self.parse_stream(f)
+  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
+    return self.parse_string(text)
+           ^^^^^^^^^^^^^^^^^^^^^^^
+  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
+    self.process_entry(entry_type, *entry[1])
+  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
+    entry.add_person(Person(name), field_name)
+                     ^^^^^^^^^^^^
+  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
+    self._parse_string(string)
+  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
+    report_error(InvalidNameString(name))
+  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
+    raise exception
+pybtex.database.InvalidNameString: Too many commas in 'Siberian Federal University, 79, Svobodny pr., Krasnoyarsk'
+During handling of the above exception, another exception occurred:
+Traceback (most recent call last):
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
+    metadata = extract_with_link(row, already_extracted_files, web_scraper)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 144, in extract_with_link
+    metadata = get_from_already_extract(formated_name, already_extracted_files)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 59, in get_from_already_extract
+    raise Exception(e)
+Exception: Too many commas in 'Siberian Federal University, 79, Svobodny pr., Krasnoyarsk'
+</t>
         </is>
       </c>
     </row>
@@ -2419,47 +1354,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2468,7 +1372,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2486,11 +1390,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2504,7 +1408,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2522,11 +1426,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2540,7 +1444,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2558,7 +1462,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2576,11 +1480,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2594,11 +1498,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2612,7 +1516,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2630,7 +1534,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2648,11 +1552,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2666,7 +1570,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2684,11 +1588,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2702,7 +1606,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2720,11 +1624,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2738,11 +1642,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2756,11 +1660,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2774,7 +1678,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2792,11 +1696,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2810,11 +1714,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2828,47 +1732,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2877,11 +1750,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2895,11 +1768,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2913,11 +1786,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2931,47 +1804,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2980,47 +1822,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -3029,7 +1840,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3047,7 +1858,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3065,7 +1876,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3083,47 +1894,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -3132,7 +1912,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3150,47 +1930,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -3199,11 +1948,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3217,7 +1966,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3235,7 +1984,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -3253,11 +2002,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3271,7 +2020,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3289,7 +2038,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3307,7 +2056,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3325,11 +2074,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3343,11 +2092,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3361,7 +2110,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3379,11 +2128,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3397,47 +2146,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 141, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ACM(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 340, in get_metadata_from_html_ACM
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "ACM")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -3446,7 +2164,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3464,11 +2182,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3482,7 +2200,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3500,11 +2218,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3518,7 +2236,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3536,11 +2254,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3554,7 +2272,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3572,11 +2290,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3590,11 +2308,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3608,11 +2326,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3626,11 +2344,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3644,7 +2362,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3662,11 +2380,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3680,7 +2398,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3698,7 +2416,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3716,11 +2434,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3734,7 +2452,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3752,11 +2470,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3770,7 +2488,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3788,7 +2506,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3806,11 +2524,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3824,11 +2542,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3842,7 +2560,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3860,7 +2578,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3878,7 +2596,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3896,7 +2614,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3914,11 +2632,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3932,7 +2650,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3950,47 +2668,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -3999,7 +2686,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -4017,7 +2704,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -4035,11 +2722,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4053,7 +2740,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4071,11 +2758,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4089,7 +2776,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4107,7 +2794,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4125,7 +2812,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4143,7 +2830,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4161,11 +2848,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4179,7 +2866,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -4197,7 +2884,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4215,7 +2902,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -4233,7 +2920,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -4251,11 +2938,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4269,11 +2956,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4287,11 +2974,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4305,11 +2992,11 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4323,7 +3010,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4341,7 +3028,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4359,11 +3046,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4377,11 +3064,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4395,7 +3082,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4413,7 +3100,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4431,7 +3118,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4449,7 +3136,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4467,11 +3154,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4485,11 +3172,11 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4503,7 +3190,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4521,7 +3208,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4539,7 +3226,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4557,7 +3244,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4575,7 +3262,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -4593,11 +3280,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4611,11 +3298,11 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4629,11 +3316,11 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4647,11 +3334,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4665,11 +3352,11 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4683,11 +3370,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4701,11 +3388,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4719,11 +3406,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4737,11 +3424,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4755,11 +3442,11 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4773,11 +3460,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4791,7 +3478,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4809,11 +3496,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4827,7 +3514,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4845,7 +3532,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4863,11 +3550,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4881,11 +3568,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4899,7 +3586,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4917,7 +3604,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4935,7 +3622,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4953,7 +3640,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4971,7 +3658,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4989,11 +3676,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5007,11 +3694,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5025,11 +3712,11 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5043,11 +3730,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5061,11 +3748,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5079,7 +3766,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5097,11 +3784,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5115,11 +3802,11 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5133,11 +3820,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5151,11 +3838,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5169,11 +3856,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5187,7 +3874,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -5205,7 +3892,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5223,7 +3910,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5241,7 +3928,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5259,7 +3946,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5277,7 +3964,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5295,7 +3982,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -5313,11 +4000,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5331,7 +4018,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5349,7 +4036,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5367,7 +4054,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5385,7 +4072,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5403,11 +4090,11 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5421,7 +4108,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -5439,11 +4126,11 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5457,7 +4144,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5475,7 +4162,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5493,11 +4180,11 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5511,11 +4198,11 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5529,11 +4216,11 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5547,47 +4234,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 49, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 141, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ACM(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 340, in get_metadata_from_html_ACM
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "ACM")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -5596,7 +4252,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5614,7 +4270,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5632,7 +4288,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5650,11 +4306,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5668,7 +4324,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5686,7 +4342,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5704,7 +4360,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -5722,7 +4378,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -5740,7 +4396,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5758,7 +4414,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5776,7 +4432,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -5794,7 +4450,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5812,7 +4468,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -5830,7 +4486,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -5848,11 +4504,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5866,11 +4522,11 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5884,11 +4540,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5902,7 +4558,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -5920,11 +4576,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5938,11 +4594,11 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5956,11 +4612,11 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5974,11 +4630,11 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5992,11 +4648,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6010,11 +4666,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6028,7 +4684,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -6046,11 +4702,11 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6064,11 +4720,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6082,7 +4738,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -6100,7 +4756,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -6118,7 +4774,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -6136,7 +4792,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -6154,7 +4810,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -6172,7 +4828,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -6190,7 +4846,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -6208,7 +4864,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -6226,7 +4882,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -6244,7 +4900,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -6262,11 +4918,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -6280,11 +4936,11 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6298,7 +4954,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -6316,11 +4972,11 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6334,7 +4990,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -6352,7 +5008,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -6370,11 +5026,11 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6388,7 +5044,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -6406,11 +5062,11 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6424,11 +5080,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6442,11 +5098,11 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6460,11 +5116,11 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6478,11 +5134,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6496,7 +5152,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -6514,11 +5170,11 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6532,11 +5188,11 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6550,7 +5206,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -6568,7 +5224,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -6586,7 +5242,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -6604,7 +5260,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -6622,47 +5278,16 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -6671,47 +5296,16 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -6720,47 +5314,16 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -6769,47 +5332,16 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -6818,47 +5350,16 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -6867,47 +5368,16 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -6916,47 +5386,16 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -6965,7 +5404,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -6983,11 +5422,11 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7001,7 +5440,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -7019,11 +5458,11 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7037,47 +5476,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7086,47 +5494,16 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7135,47 +5512,16 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7184,47 +5530,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7233,47 +5548,16 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7282,47 +5566,16 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7331,47 +5584,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7380,47 +5602,16 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7429,47 +5620,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7478,11 +5638,11 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -7496,11 +5656,11 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -7514,47 +5674,16 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7563,47 +5692,16 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7612,11 +5710,11 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -7630,11 +5728,11 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -7648,47 +5746,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7697,47 +5764,16 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 43, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7746,47 +5782,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7795,7 +5800,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -7813,7 +5818,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -7831,47 +5836,16 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7880,47 +5854,16 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7929,7 +5872,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -7947,7 +5890,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -7965,7 +5908,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -7983,7 +5926,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -8001,7 +5944,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -8019,7 +5962,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -8037,7 +5980,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -8055,7 +5998,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -8073,7 +6016,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -8091,11 +6034,11 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8109,11 +6052,11 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8127,11 +6070,11 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8145,11 +6088,11 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8163,39 +6106,16 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 150, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 84, in get_metadata_from_link
-    new_metadata = htmlParser.get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -8204,7 +6124,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -8222,47 +6142,16 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>expected string or bytes-like object, got 'NoneType'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 46, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, IEEE)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 135, in get_metadata_from_already_extract
-    new_metadata = get_metadata_from_html_ieee(html)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 245, in get_metadata_from_html_ieee
-    return assign_metadata(title, venue, authors, pages, abstract, keywords, references, doi, publisher, "IEEE")
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 58, in assign_metadata
-    metadata['Abstract'] = clean_abstract(abstract)
-                           ^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 28, in clean_abstract
-    abstract = re.sub('(?:\(c\)|Copyright)\s*(.*)', '', abstract)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3.12/re/__init__.py", line 186, in sub
-    return _compile(pattern, flags).sub(repl, string, count)
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: expected string or bytes-like object, got 'NoneType'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 242, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 139, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 58, in get_from_already_extract
-    raise Exception(e)
-Exception: expected string or bytes-like object, got 'NoneType'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -8271,7 +6160,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -8289,7 +6178,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -8307,7 +6196,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -8325,7 +6214,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -8343,14 +6232,68 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
+        <v>442</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>446</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>452</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
         <v>453</v>
       </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
         <is>
           <t>passed</t>
         </is>

--- a/Datasets/erreurs_999.xlsx
+++ b/Datasets/erreurs_999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D263"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,25 +477,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Errno 36] File name too long: '/media/ggenois/Samsung USB/Projet Curation des métadonnées/HTML extracted/2024-10-09_I²MTC, 2019 IEEE International Instrumentation &amp; Measurement Technology Conference %3A Discovering New Horizons in Instrumentation and Measurement %3A 2019 conference proceedings %3A the Lords of the IMS%3A Expanding the Frontiers of Metrology Innovations %3A Grand Millennium Auckland, Auckland, New Zealand, May 20-23, 2019_02.html'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 155, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 100, in get_metadata_from_link
-    save_extracted_html(title + "_02", html)
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 160, in save_extracted_html
-    with open(f"{EXTRACTED_PATH}/HTML extracted/{datetime.today().strftime('%Y-%m-%d')}_{formated_link}.html", 'wb') as f:
-         ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-OSError: [Errno 36] File name too long: '/media/ggenois/Samsung USB/Projet Curation des métadonnées/HTML extracted/2024-10-09_I²MTC, 2019 IEEE International Instrumentation &amp; Measurement Technology Conference %3A Discovering New Horizons in Instrumentation and Measurement %3A 2019 conference proceedings %3A the Lords of the IMS%3A Expanding the Frontiers of Metrology Innovations %3A Grand Millennium Auckland, Auckland, New Zealand, May 20-23, 2019_02.html'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -562,23 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>argument of type 'float' is not iterable</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 155, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 82, in get_metadata_from_link
-    if source == IEEE or source == 'ieee' or 'Institute of Electrical and Electronics Engineers' in source:
-                                             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: argument of type 'float' is not iterable
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -645,38 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'NoneType' object has no attribute 'encode'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 123, in extract_without_link
-    metadata = web_scraper.get_metadata_from_title(row['title'], authors, ACM)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 185, in get_metadata_from_title
-    new_metadata = self.searcher.search_in_ACM(title)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/searchInSource.py", line 279, in search_in_ACM
-    if not check_if_right_link(new_metadata, title):
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 185, in check_if_right_link
-    tmp_meta_title = clean_title(new_metadata['Title'])
-                     ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 171, in clean_title
-    tmp_title = unidecode(title)
-                ^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/unidecode/__init__.py", line 60, in unidecode_expect_ascii
-    bytestring = string.encode('ASCII')
-                 ^^^^^^^^^^^^^
-AttributeError: 'NoneType' object has no attribute 'encode'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -851,38 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>'NoneType' object has no attribute 'encode'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 123, in extract_without_link
-    metadata = web_scraper.get_metadata_from_title(row['title'], authors, ACM)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 185, in get_metadata_from_title
-    new_metadata = self.searcher.search_in_ACM(title)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/searchInSource.py", line 279, in search_in_ACM
-    if not check_if_right_link(new_metadata, title):
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 185, in check_if_right_link
-    tmp_meta_title = clean_title(new_metadata['Title'])
-                     ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 171, in clean_title
-    tmp_title = unidecode(title)
-                ^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/unidecode/__init__.py", line 60, in unidecode_expect_ascii
-    bytestring = string.encode('ASCII')
-                 ^^^^^^^^^^^^^
-AttributeError: 'NoneType' object has no attribute 'encode'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -895,23 +819,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>argument of type 'float' is not iterable</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 155, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 82, in get_metadata_from_link
-    if source == IEEE or source == 'ieee' or 'Institute of Electrical and Electronics Engineers' in source:
-                                             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: argument of type 'float' is not iterable
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -974,11 +887,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -992,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1014,7 +927,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1028,11 +941,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1050,7 +963,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1064,11 +977,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1082,11 +995,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1100,11 +1013,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1118,7 +1031,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1136,11 +1049,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1154,11 +1067,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1172,11 +1085,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1190,7 +1103,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1208,11 +1121,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1226,11 +1139,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1244,11 +1157,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1262,42 +1175,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>'NoneType' object has no attribute 'encode'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 123, in extract_without_link
-    metadata = web_scraper.get_metadata_from_title(row['title'], authors, ACM)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 185, in get_metadata_from_title
-    new_metadata = self.searcher.search_in_ACM(title)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/searchInSource.py", line 279, in search_in_ACM
-    if not check_if_right_link(new_metadata, title):
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 185, in check_if_right_link
-    tmp_meta_title = clean_title(new_metadata['Title'])
-                     ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 171, in clean_title
-    tmp_title = unidecode(title)
-                ^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/unidecode/__init__.py", line 60, in unidecode_expect_ascii
-    bytestring = string.encode('ASCII')
-                 ^^^^^^^^^^^^^
-AttributeError: 'NoneType' object has no attribute 'encode'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1193,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1324,14 +1211,104 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>89</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>90</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>94</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>96</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>97</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Pages</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>100</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Too many commas in 'Siberian Federal University, 79, Svobodny pr., Krasnoyarsk'</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t xml:space="preserve">Traceback (most recent call last):
   File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 50, in get_from_already_extract
@@ -1372,132 +1349,16 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>102</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>106</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>'NoneType' object has no attribute 'encode'</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 123, in extract_without_link
-    metadata = web_scraper.get_metadata_from_title(row['title'], authors, ACM)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 185, in get_metadata_from_title
-    new_metadata = self.searcher.search_in_ACM(title)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/searchInSource.py", line 279, in search_in_ACM
-    if not check_if_right_link(new_metadata, title):
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 185, in check_if_right_link
-    tmp_meta_title = clean_title(new_metadata['Title'])
-                     ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 171, in clean_title
-    tmp_title = unidecode(title)
-                ^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/unidecode/__init__.py", line 60, in unidecode_expect_ascii
-    bytestring = string.encode('ASCII')
-                 ^^^^^^^^^^^^^
-AttributeError: 'NoneType' object has no attribute 'encode'
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>107</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>108</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>109</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1511,7 +1372,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1529,11 +1390,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1547,11 +1408,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1565,11 +1426,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1583,7 +1444,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1601,7 +1462,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1619,7 +1480,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1637,42 +1498,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>'NoneType' object has no attribute 'encode'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 123, in extract_without_link
-    metadata = web_scraper.get_metadata_from_title(row['title'], authors, ACM)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 185, in get_metadata_from_title
-    new_metadata = self.searcher.search_in_ACM(title)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/searchInSource.py", line 279, in search_in_ACM
-    if not check_if_right_link(new_metadata, title):
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 185, in check_if_right_link
-    tmp_meta_title = clean_title(new_metadata['Title'])
-                     ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 171, in clean_title
-    tmp_title = unidecode(title)
-                ^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/unidecode/__init__.py", line 60, in unidecode_expect_ascii
-    bytestring = string.encode('ASCII')
-                 ^^^^^^^^^^^^^
-AttributeError: 'NoneType' object has no attribute 'encode'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1516,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1699,11 +1534,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1717,11 +1552,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1735,11 +1570,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1753,7 +1588,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1771,42 +1606,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>'NoneType' object has no attribute 'encode'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 123, in extract_without_link
-    metadata = web_scraper.get_metadata_from_title(row['title'], authors, ACM)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 185, in get_metadata_from_title
-    new_metadata = self.searcher.search_in_ACM(title)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/searchInSource.py", line 279, in search_in_ACM
-    if not check_if_right_link(new_metadata, title):
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 185, in check_if_right_link
-    tmp_meta_title = clean_title(new_metadata['Title'])
-                     ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 171, in clean_title
-    tmp_title = unidecode(title)
-                ^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/unidecode/__init__.py", line 60, in unidecode_expect_ascii
-    bytestring = string.encode('ASCII')
-                 ^^^^^^^^^^^^^
-AttributeError: 'NoneType' object has no attribute 'encode'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1815,11 +1624,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1833,11 +1642,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1851,11 +1660,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1869,11 +1678,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1887,11 +1696,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1905,11 +1714,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1923,11 +1732,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1941,11 +1750,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1959,11 +1768,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1977,11 +1786,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1995,11 +1804,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2013,7 +1822,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2031,7 +1840,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2049,7 +1858,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2067,7 +1876,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2085,7 +1894,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2103,7 +1912,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2121,11 +1930,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2139,7 +1948,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2157,7 +1966,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2175,7 +1984,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2193,7 +2002,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2211,7 +2020,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2229,7 +2038,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2247,11 +2056,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2265,11 +2074,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2283,11 +2092,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2301,7 +2110,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2319,11 +2128,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2337,7 +2146,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2355,7 +2164,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2373,11 +2182,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2391,7 +2200,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2409,7 +2218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2427,11 +2236,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2445,7 +2254,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2463,7 +2272,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2481,11 +2290,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2499,11 +2308,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2517,11 +2326,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2535,7 +2344,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2553,7 +2362,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2571,11 +2380,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2589,11 +2398,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2607,7 +2416,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2625,11 +2434,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2643,7 +2452,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2661,11 +2470,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2679,7 +2488,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2697,11 +2506,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2715,11 +2524,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2733,11 +2542,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2751,7 +2560,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2769,7 +2578,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2787,11 +2596,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2805,7 +2614,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2823,11 +2632,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2841,7 +2650,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2859,11 +2668,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2877,7 +2686,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2895,7 +2704,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2913,11 +2722,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2931,7 +2740,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2949,11 +2758,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2967,7 +2776,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2985,11 +2794,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3003,7 +2812,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3021,7 +2830,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3039,11 +2848,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3057,7 +2866,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3075,7 +2884,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3093,7 +2902,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3111,7 +2920,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3129,7 +2938,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3147,7 +2956,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3165,7 +2974,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3183,7 +2992,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3201,7 +3010,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3219,7 +3028,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3237,11 +3046,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3255,7 +3064,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3273,7 +3082,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3291,7 +3100,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3309,7 +3118,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3327,7 +3136,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3345,7 +3154,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3363,7 +3172,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3381,7 +3190,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3399,11 +3208,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3417,7 +3226,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3435,7 +3244,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3453,7 +3262,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3471,7 +3280,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3489,11 +3298,11 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3507,7 +3316,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3525,7 +3334,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3543,7 +3352,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3561,7 +3370,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3579,7 +3388,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3597,11 +3406,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3615,11 +3424,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3633,7 +3442,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3651,11 +3460,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3669,7 +3478,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3687,7 +3496,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3705,7 +3514,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3723,7 +3532,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3741,11 +3550,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3759,11 +3568,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -3777,7 +3586,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3795,7 +3604,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3813,7 +3622,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3831,7 +3640,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3849,7 +3658,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3867,11 +3676,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -3885,11 +3694,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -3903,11 +3712,11 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -3921,11 +3730,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -3939,11 +3748,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -3957,11 +3766,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -3975,11 +3784,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -3993,11 +3802,11 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4011,11 +3820,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4029,11 +3838,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4047,11 +3856,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4065,11 +3874,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4083,7 +3892,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4101,7 +3910,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4119,7 +3928,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4137,7 +3946,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4155,7 +3964,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4173,7 +3982,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4191,11 +4000,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4209,7 +4018,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4227,7 +4036,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4245,7 +4054,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4263,7 +4072,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4281,7 +4090,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4299,7 +4108,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4317,7 +4126,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4335,7 +4144,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4353,7 +4162,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4371,7 +4180,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4389,7 +4198,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4407,7 +4216,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4425,11 +4234,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -4443,7 +4252,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4461,7 +4270,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4479,7 +4288,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4497,11 +4306,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4515,7 +4324,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4533,7 +4342,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4551,7 +4360,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4569,7 +4378,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -4587,7 +4396,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -4605,7 +4414,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4623,7 +4432,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -4641,11 +4450,11 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4659,11 +4468,11 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -4677,7 +4486,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4695,11 +4504,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -4713,11 +4522,11 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -4731,7 +4540,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -4749,7 +4558,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -4767,7 +4576,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -4785,7 +4594,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -4803,7 +4612,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4821,7 +4630,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4839,7 +4648,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -4857,7 +4666,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4875,7 +4684,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4893,7 +4702,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -4911,7 +4720,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4929,7 +4738,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4947,7 +4756,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4965,7 +4774,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4983,7 +4792,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -5001,11 +4810,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5019,7 +4828,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5037,11 +4846,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5055,7 +4864,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -5073,39 +4882,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>'NoneType' object has no attribute 'encode'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 252, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 123, in extract_without_link
-    metadata = web_scraper.get_metadata_from_title(row['title'], authors, ACM)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 185, in get_metadata_from_title
-    new_metadata = self.searcher.search_in_ACM(title)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/searchInSource.py", line 279, in search_in_ACM
-    if not check_if_right_link(new_metadata, title):
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 185, in check_if_right_link
-    tmp_meta_title = clean_title(new_metadata['Title'])
-                     ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 171, in clean_title
-    tmp_title = unidecode(title)
-                ^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/unidecode/__init__.py", line 60, in unidecode_expect_ascii
-    bytestring = string.encode('ASCII')
-                 ^^^^^^^^^^^^^
-AttributeError: 'NoneType' object has no attribute 'encode'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -5114,11 +4900,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5132,11 +4918,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5150,11 +4936,11 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5168,7 +4954,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -5186,11 +4972,11 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5204,7 +4990,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5222,11 +5008,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5240,7 +5026,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5258,11 +5044,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5276,11 +5062,11 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -5294,11 +5080,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -5312,11 +5098,11 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -5330,11 +5116,11 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>408</v>
+        <v>299</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -5348,11 +5134,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>408</v>
+        <v>300</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -5366,7 +5152,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>408</v>
+        <v>301</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5384,11 +5170,11 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>408</v>
+        <v>302</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -5402,39 +5188,1096 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>417</v>
+        <v>303</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>'NoneType' object has no attribute 'encode'</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 252, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 123, in extract_without_link
-    metadata = web_scraper.get_metadata_from_title(row['title'], authors, ACM)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 185, in get_metadata_from_title
-    new_metadata = self.searcher.search_in_ACM(title)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/searchInSource.py", line 279, in search_in_ACM
-    if not check_if_right_link(new_metadata, title):
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 185, in check_if_right_link
-    tmp_meta_title = clean_title(new_metadata['Title'])
-                     ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 171, in clean_title
-    tmp_title = unidecode(title)
-                ^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/unidecode/__init__.py", line 60, in unidecode_expect_ascii
-    bytestring = string.encode('ASCII')
-                 ^^^^^^^^^^^^^
-AttributeError: 'NoneType' object has no attribute 'encode'
-</t>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>304</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>305</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>306</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>307</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>308</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>309</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>310</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>311</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>312</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>313</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>314</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>315</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>316</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>317</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>318</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>319</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Keywords</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>319</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>320</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Keywords</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>320</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>321</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>322</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Keywords</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>322</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>323</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>324</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>325</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>326</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>327</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>329</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>330</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>331</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>332</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>333</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>346</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>347</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>348</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>369</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>370</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>373</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>376</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>384</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>388</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>392</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>393</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>404</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>405</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>407</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>408</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Authors</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>408</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Keywords</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>408</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>References</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>408</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Pages</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>415</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>416</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>422</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>425</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>433</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>440</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>442</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>446</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>452</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>453</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>

--- a/Datasets/erreurs_999.xlsx
+++ b/Datasets/erreurs_999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D323"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +477,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>[Errno 36] File name too long: '/media/ggenois/Samsung USB/Projet Curation des métadonnées/HTML extracted/2024-10-10_I²MTC, 2019 IEEE International Instrumentation &amp; Measurement Technology Conference %3A Discovering New Horizons in Instrumentation and Measurement %3A 2019 conference proceedings %3A the Lords of the IMS%3A Expanding the Frontiers of Metrology Innovations %3A Grand Millennium Auckland, Auckland, New Zealand, May 20-23, 2019_02.html'</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
+    metadata = extract_with_link(row, already_extracted_files, web_scraper)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 155, in extract_with_link
+    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 100, in get_metadata_from_link
+    save_extracted_html(title + "_02", html)
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 160, in save_extracted_html
+    with open(f"{EXTRACTED_PATH}/HTML extracted/{datetime.today().strftime('%Y-%m-%d')}_{formated_link}.html", 'wb') as f:
+         ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+OSError: [Errno 36] File name too long: '/media/ggenois/Samsung USB/Projet Curation des métadonnées/HTML extracted/2024-10-10_I²MTC, 2019 IEEE International Instrumentation &amp; Measurement Technology Conference %3A Discovering New Horizons in Instrumentation and Measurement %3A 2019 conference proceedings %3A the Lords of the IMS%3A Expanding the Frontiers of Metrology Innovations %3A Grand Millennium Auckland, Auckland, New Zealand, May 20-23, 2019_02.html'
+</t>
         </is>
       </c>
     </row>
@@ -549,12 +562,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>argument of type 'float' is not iterable</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
+    metadata = extract_with_link(row, already_extracted_files, web_scraper)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 155, in extract_with_link
+    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 82, in get_metadata_from_link
+    if source == IEEE or source == 'ieee' or 'Institute of Electrical and Electronics Engineers' in source:
+                                             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+TypeError: argument of type 'float' is not iterable
+</t>
         </is>
       </c>
     </row>
@@ -621,7 +645,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -635,11 +659,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -657,7 +681,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -671,11 +695,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -693,7 +717,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -707,11 +731,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -729,7 +753,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -747,7 +771,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -765,7 +789,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -783,7 +807,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -797,11 +821,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -819,12 +843,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>argument of type 'float' is not iterable</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
+    metadata = extract_with_link(row, already_extracted_files, web_scraper)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 155, in extract_with_link
+    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 82, in get_metadata_from_link
+    if source == IEEE or source == 'ieee' or 'Institute of Electrical and Electronics Engineers' in source:
+                                             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+TypeError: argument of type 'float' is not iterable
+</t>
         </is>
       </c>
     </row>
@@ -887,11 +922,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -905,7 +940,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -927,7 +962,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -941,11 +976,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -963,7 +998,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -977,11 +1012,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -995,11 +1030,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1013,11 +1048,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1031,7 +1066,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1049,11 +1084,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1067,11 +1102,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1085,11 +1120,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1103,7 +1138,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1121,11 +1156,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1139,11 +1174,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1157,11 +1192,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1175,11 +1210,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1193,11 +1228,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1215,7 +1250,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1229,11 +1264,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1247,11 +1282,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1265,11 +1300,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1283,11 +1318,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1301,14 +1336,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>97</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Pages</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>100</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Too many commas in 'Siberian Federal University, 79, Svobodny pr., Krasnoyarsk'</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve">Traceback (most recent call last):
   File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 50, in get_from_already_extract
@@ -1349,24 +1402,6 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>101</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
@@ -1390,11 +1425,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1408,11 +1443,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1426,11 +1461,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1444,7 +1479,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1462,11 +1497,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1480,11 +1515,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1498,11 +1533,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1516,7 +1551,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1534,11 +1569,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1552,11 +1587,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1570,11 +1605,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1588,11 +1623,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1606,11 +1641,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1624,7 +1659,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1642,11 +1677,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1660,11 +1695,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1678,7 +1713,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1696,11 +1731,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1714,11 +1749,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1732,11 +1767,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1750,11 +1785,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1768,11 +1803,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1786,11 +1821,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1804,11 +1839,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1822,7 +1857,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1840,7 +1875,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1858,7 +1893,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1876,11 +1911,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -1894,7 +1929,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1912,7 +1947,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1930,11 +1965,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -1948,7 +1983,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1966,7 +2001,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1984,11 +2019,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2002,7 +2037,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2020,7 +2055,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2038,7 +2073,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2056,7 +2091,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2074,11 +2109,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2092,7 +2127,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2110,11 +2145,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2128,11 +2163,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2146,7 +2181,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2164,7 +2199,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2182,11 +2217,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2200,11 +2235,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2218,7 +2253,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2236,7 +2271,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2254,7 +2289,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2272,7 +2307,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2290,7 +2325,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2308,7 +2343,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2326,11 +2361,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2344,11 +2379,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2362,11 +2397,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2380,11 +2415,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2398,7 +2433,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2416,7 +2451,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2434,7 +2469,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2452,11 +2487,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2470,11 +2505,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2488,11 +2523,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2506,7 +2541,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2524,11 +2559,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2542,11 +2577,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2560,11 +2595,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2578,7 +2613,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2596,7 +2631,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2614,7 +2649,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2632,11 +2667,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2650,11 +2685,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2668,11 +2703,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2686,7 +2721,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2704,7 +2739,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2722,11 +2757,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2740,7 +2775,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2758,11 +2793,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2776,7 +2811,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2794,7 +2829,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2812,7 +2847,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2830,7 +2865,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2848,7 +2883,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2866,7 +2901,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2884,7 +2919,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2902,7 +2937,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2920,7 +2955,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2938,7 +2973,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2956,7 +2991,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2974,7 +3009,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2992,7 +3027,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3010,7 +3045,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3028,7 +3063,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3046,11 +3081,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3064,7 +3099,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3082,7 +3117,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3100,7 +3135,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3118,7 +3153,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3136,7 +3171,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3154,7 +3189,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3172,7 +3207,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3190,7 +3225,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3208,7 +3243,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3226,7 +3261,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3244,7 +3279,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3262,11 +3297,11 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3280,7 +3315,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3298,7 +3333,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3316,7 +3351,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3334,7 +3369,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3352,11 +3387,11 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3370,7 +3405,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3388,7 +3423,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3406,7 +3441,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3424,7 +3459,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3442,7 +3477,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3460,11 +3495,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3478,11 +3513,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3496,7 +3531,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3514,7 +3549,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3532,7 +3567,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3550,11 +3585,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3568,11 +3603,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -3586,7 +3621,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3604,11 +3639,11 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -3622,7 +3657,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3640,7 +3675,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3658,7 +3693,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3676,11 +3711,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -3694,11 +3729,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -3712,11 +3747,11 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -3730,11 +3765,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -3748,11 +3783,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -3766,11 +3801,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -3784,11 +3819,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -3802,11 +3837,11 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -3820,11 +3855,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -3838,11 +3873,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -3856,11 +3891,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -3874,11 +3909,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -3892,7 +3927,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3910,11 +3945,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -3928,7 +3963,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -3946,7 +3981,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3964,7 +3999,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3982,7 +4017,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4000,11 +4035,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4018,7 +4053,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4036,7 +4071,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4054,7 +4089,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4072,7 +4107,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4090,7 +4125,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4108,7 +4143,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4126,7 +4161,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4144,7 +4179,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4162,7 +4197,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4180,7 +4215,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4198,7 +4233,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4216,7 +4251,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4234,11 +4269,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -4252,7 +4287,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4270,7 +4305,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4288,7 +4323,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4306,11 +4341,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4324,7 +4359,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4342,7 +4377,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4360,7 +4395,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4378,7 +4413,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -4396,7 +4431,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -4414,7 +4449,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4432,7 +4467,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -4450,7 +4485,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -4468,7 +4503,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -4486,7 +4521,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4504,11 +4539,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -4522,11 +4557,11 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -4540,7 +4575,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -4558,11 +4593,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -4576,7 +4611,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -4594,7 +4629,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -4612,7 +4647,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4630,7 +4665,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4648,7 +4683,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -4666,7 +4701,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4684,7 +4719,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4702,7 +4737,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -4720,7 +4755,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4738,7 +4773,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4756,7 +4791,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4774,7 +4809,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4792,7 +4827,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4810,7 +4845,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4828,7 +4863,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4846,7 +4881,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4864,11 +4899,11 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -4882,7 +4917,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4900,11 +4935,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -4918,11 +4953,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -4936,7 +4971,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4954,7 +4989,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4972,11 +5007,11 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -4990,7 +5025,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5008,11 +5043,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5026,7 +5061,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5044,11 +5079,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5062,11 +5097,11 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -5080,11 +5115,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -5098,11 +5133,11 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -5116,11 +5151,11 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -5134,11 +5169,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -5152,16 +5187,32 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>[Errno 36] File name too long: '/media/ggenois/Samsung USB/Projet Curation des métadonnées/HTML extracted/2024-10-10_Integration of ROS and Tecnomatix for the development of digital twins based decision-making systems for smart factories; Integration of ROS and Tecnomatix for the development of digital twins based decision-making systems for smart factories_05.html'</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 252, in main
+    metadata = extract_without_link(row, already_extracted_files, web_scraper)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 123, in extract_without_link
+    metadata = web_scraper.get_metadata_from_title(row['title'], authors, WoS)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 205, in get_metadata_from_title
+    new_metadata = self.searcher.search_in_WoS(title)
+                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/searchInSource.py", line 391, in search_in_WoS
+    save_extracted_html(title + '_05', html)
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 160, in save_extracted_html
+    with open(f"{EXTRACTED_PATH}/HTML extracted/{datetime.today().strftime('%Y-%m-%d')}_{formated_link}.html", 'wb') as f:
+         ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+OSError: [Errno 36] File name too long: '/media/ggenois/Samsung USB/Projet Curation des métadonnées/HTML extracted/2024-10-10_Integration of ROS and Tecnomatix for the development of digital twins based decision-making systems for smart factories; Integration of ROS and Tecnomatix for the development of digital twins based decision-making systems for smart factories_05.html'
+</t>
         </is>
       </c>
     </row>
@@ -5170,16 +5221,32 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>[Errno 36] File name too long: '/media/ggenois/Samsung USB/Projet Curation des métadonnées/HTML extracted/2024-10-10_Examination of the Effectiveness of Mode Orthogonalisation and Filtering for Scattering Suppression in Antenna Measurements Through Computational Electromagnetic Simulation; Examination of the Effectiveness of Mode Orthogonalisation and Filtering for Scattering Suppression in Antenna Measurements Through Computational Electromagnetic Simulation_05.html'</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 252, in main
+    metadata = extract_without_link(row, already_extracted_files, web_scraper)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 123, in extract_without_link
+    metadata = web_scraper.get_metadata_from_title(row['title'], authors, WoS)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 205, in get_metadata_from_title
+    new_metadata = self.searcher.search_in_WoS(title)
+                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/searchInSource.py", line 391, in search_in_WoS
+    save_extracted_html(title + '_05', html)
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 160, in save_extracted_html
+    with open(f"{EXTRACTED_PATH}/HTML extracted/{datetime.today().strftime('%Y-%m-%d')}_{formated_link}.html", 'wb') as f:
+         ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+OSError: [Errno 36] File name too long: '/media/ggenois/Samsung USB/Projet Curation des métadonnées/HTML extracted/2024-10-10_Examination of the Effectiveness of Mode Orthogonalisation and Filtering for Scattering Suppression in Antenna Measurements Through Computational Electromagnetic Simulation; Examination of the Effectiveness of Mode Orthogonalisation and Filtering for Scattering Suppression in Antenna Measurements Through Computational Electromagnetic Simulation_05.html'
+</t>
         </is>
       </c>
     </row>
@@ -5188,11 +5255,11 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>303</v>
+        <v>408</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -5206,11 +5273,11 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -5224,7 +5291,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>305</v>
+        <v>408</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5242,1040 +5309,14 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>306</v>
+        <v>408</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>307</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>308</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>309</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>310</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>311</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>312</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>313</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>314</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>315</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>316</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>317</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>318</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>319</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>319</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>320</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>320</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>321</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>322</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>322</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>323</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>324</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>325</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>326</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>327</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>329</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>330</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>331</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>332</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>333</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>346</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>347</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>348</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>369</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>370</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>373</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>376</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>384</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>388</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>392</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>393</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>404</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>405</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>407</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>408</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>Authors</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>408</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>408</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>408</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>415</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>416</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>422</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>425</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>433</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>440</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>442</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>446</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>452</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>453</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
         <is>
           <t>passed</t>
         </is>

--- a/Datasets/erreurs_999.xlsx
+++ b/Datasets/erreurs_999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -473,11 +473,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -491,11 +491,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -509,11 +509,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -527,11 +527,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -545,11 +545,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -563,11 +563,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -617,11 +617,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -635,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -653,11 +653,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -671,11 +671,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -689,11 +689,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -707,11 +707,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -725,11 +725,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -743,11 +743,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -761,11 +761,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -779,11 +779,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -797,11 +797,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -815,11 +815,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -833,11 +833,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -851,11 +851,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -869,11 +869,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -887,7 +887,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -905,11 +905,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>DOI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -923,11 +923,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -959,7 +959,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -977,11 +977,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -995,11 +995,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1013,11 +1013,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1031,11 +1031,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1049,11 +1049,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1067,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1103,11 +1103,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1121,11 +1121,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1139,11 +1139,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1157,11 +1157,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1175,11 +1175,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1193,11 +1193,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1211,11 +1211,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1229,11 +1229,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1247,11 +1247,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1265,11 +1265,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1283,11 +1283,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>DOI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1319,11 +1319,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1337,11 +1337,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1355,7 +1355,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1373,11 +1373,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1391,11 +1391,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1409,11 +1409,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1427,11 +1427,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1445,11 +1445,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1481,11 +1481,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1499,51 +1499,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Too many commas in 'Siberian Federal University, 79, Svobodny pr., Krasnoyarsk'</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 50, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 174, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Siberian Federal University, 79, Svobodny pr., Krasnoyarsk'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 247, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 144, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 59, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Siberian Federal University, 79, Svobodny pr., Krasnoyarsk'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1552,11 +1517,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>DOI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1570,11 +1535,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1588,11 +1553,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1606,11 +1571,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1624,11 +1589,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1642,11 +1607,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1660,11 +1625,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1678,7 +1643,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1696,11 +1661,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1714,11 +1679,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1732,11 +1697,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1750,11 +1715,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1768,11 +1733,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1786,11 +1751,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1804,7 +1769,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1822,11 +1787,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1840,7 +1805,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1858,7 +1823,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1876,11 +1841,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -1894,11 +1859,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -1912,11 +1877,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -1930,7 +1895,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1948,11 +1913,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -1966,11 +1931,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -1984,11 +1949,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2002,11 +1967,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2020,7 +1985,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2038,11 +2003,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2056,11 +2021,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2074,11 +2039,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2092,11 +2057,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2110,11 +2075,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2128,11 +2093,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2146,11 +2111,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2164,11 +2129,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2182,7 +2147,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2200,11 +2165,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2218,11 +2183,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2236,7 +2201,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2254,7 +2219,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2272,11 +2237,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2290,11 +2255,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2308,7 +2273,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2326,7 +2291,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2344,7 +2309,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2362,7 +2327,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2380,11 +2345,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2398,7 +2363,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2416,7 +2381,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2434,7 +2399,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2452,11 +2417,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2470,11 +2435,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2488,11 +2453,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2506,11 +2471,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2524,7 +2489,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2542,11 +2507,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2560,11 +2525,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2578,11 +2543,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2596,11 +2561,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2614,11 +2579,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2632,11 +2597,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2650,11 +2615,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2668,11 +2633,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2686,11 +2651,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2704,11 +2669,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2722,11 +2687,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2740,7 +2705,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2758,11 +2723,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2776,11 +2741,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -2794,7 +2759,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2812,7 +2777,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2830,11 +2795,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -2848,11 +2813,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -2866,11 +2831,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -2884,11 +2849,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -2902,7 +2867,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2920,11 +2885,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -2938,7 +2903,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2956,11 +2921,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -2974,11 +2939,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -2992,11 +2957,11 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3010,7 +2975,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3028,7 +2993,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3046,11 +3011,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3064,11 +3029,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3082,11 +3047,11 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3100,11 +3065,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3118,11 +3083,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3136,7 +3101,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3154,11 +3119,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3172,11 +3137,11 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3190,11 +3155,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3208,7 +3173,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3226,11 +3191,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3244,11 +3209,11 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3262,11 +3227,11 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3280,11 +3245,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3298,7 +3263,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3316,11 +3281,11 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3334,11 +3299,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3352,11 +3317,11 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3370,11 +3335,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3388,11 +3353,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -3406,11 +3371,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3424,11 +3389,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3442,11 +3407,11 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3460,7 +3425,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3478,11 +3443,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3496,11 +3461,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3514,7 +3479,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3532,11 +3497,11 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3550,11 +3515,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3568,11 +3533,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -3586,11 +3551,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -3604,7 +3569,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3622,11 +3587,11 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -3640,11 +3605,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -3658,11 +3623,11 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -3676,11 +3641,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -3694,11 +3659,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -3712,11 +3677,11 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -3730,7 +3695,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3748,11 +3713,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -3766,11 +3731,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -3784,7 +3749,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3802,11 +3767,11 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -3820,7 +3785,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3838,7 +3803,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3856,11 +3821,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -3874,11 +3839,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -3892,11 +3857,11 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -3910,11 +3875,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -3928,11 +3893,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -3946,11 +3911,11 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -3964,7 +3929,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3982,11 +3947,11 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4000,7 +3965,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4018,11 +3983,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4036,11 +4001,11 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4054,11 +4019,11 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4072,11 +4037,11 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4090,11 +4055,11 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4108,11 +4073,11 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4126,11 +4091,11 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4144,11 +4109,11 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4162,11 +4127,11 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4180,11 +4145,11 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4198,7 +4163,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4216,11 +4181,11 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4234,11 +4199,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -4252,11 +4217,11 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -4270,11 +4235,11 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4288,7 +4253,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4306,11 +4271,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4324,11 +4289,11 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4342,11 +4307,11 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -4360,7 +4325,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4378,11 +4343,11 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4396,11 +4361,11 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -4414,11 +4379,11 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -4432,11 +4397,11 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -4450,7 +4415,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -4468,11 +4433,11 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -4486,11 +4451,11 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -4504,11 +4469,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -4522,11 +4487,11 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -4540,11 +4505,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -4558,11 +4523,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -4576,11 +4541,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -4594,11 +4559,11 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -4612,7 +4577,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4630,7 +4595,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4648,11 +4613,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -4666,11 +4631,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -4684,7 +4649,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4702,11 +4667,11 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>260</v>
+        <v>162</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -4720,11 +4685,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -4738,7 +4703,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4756,11 +4721,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -4774,11 +4739,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -4792,11 +4757,11 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>265</v>
+        <v>163</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -4810,7 +4775,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4828,11 +4793,11 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -4846,11 +4811,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -4864,7 +4829,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -4882,11 +4847,11 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -4900,7 +4865,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4918,11 +4883,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -4936,11 +4901,11 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -4954,7 +4919,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4972,11 +4937,11 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -4990,11 +4955,11 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>277</v>
+        <v>168</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5008,11 +4973,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>278</v>
+        <v>168</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5026,7 +4991,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5044,11 +5009,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5062,7 +5027,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5080,11 +5045,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -5098,11 +5063,11 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -5116,7 +5081,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>284</v>
+        <v>172</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5134,11 +5099,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -5152,11 +5117,11 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5170,7 +5135,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5188,11 +5153,11 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -5206,11 +5171,11 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -5224,11 +5189,11 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -5242,7 +5207,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5260,7 +5225,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5278,11 +5243,11 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -5296,11 +5261,11 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -5314,11 +5279,11 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -5332,7 +5297,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -5350,11 +5315,11 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -5368,11 +5333,11 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -5386,11 +5351,11 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -5404,11 +5369,11 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>298</v>
+        <v>180</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -5422,7 +5387,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>299</v>
+        <v>181</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5440,11 +5405,11 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -5458,11 +5423,11 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>301</v>
+        <v>182</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -5476,11 +5441,11 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>302</v>
+        <v>183</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -5494,11 +5459,11 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -5512,11 +5477,11 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -5530,11 +5495,11 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -5548,1058 +5513,14 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>307</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>308</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>309</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>310</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>311</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>312</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>313</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>314</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>315</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>316</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>317</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>318</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>319</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>319</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>320</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>320</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>321</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>322</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>322</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>323</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>324</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>325</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>326</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>327</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>329</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>330</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>331</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>332</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>333</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>346</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>347</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>348</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>369</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>370</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>373</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>376</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>384</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>388</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>392</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>393</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>404</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>404</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>405</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>407</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>408</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>Authors</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>408</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>408</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>408</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>415</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>416</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>422</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>425</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>433</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>440</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>442</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>446</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>452</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>453</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
         <is>
           <t>passed</t>
         </is>

--- a/Datasets/erreurs_999.xlsx
+++ b/Datasets/erreurs_999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2489,11 +2489,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2507,11 +2507,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2525,11 +2525,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2543,11 +2543,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2597,11 +2597,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2615,11 +2615,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2633,11 +2633,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2651,11 +2651,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2669,11 +2669,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2687,11 +2687,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2705,7 +2705,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2723,11 +2723,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -2759,11 +2759,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -2777,11 +2777,11 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -2795,11 +2795,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -2813,11 +2813,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -2831,7 +2831,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2867,11 +2867,11 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -2885,11 +2885,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -2903,11 +2903,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -2921,11 +2921,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -2939,11 +2939,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -2957,11 +2957,11 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -2975,11 +2975,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -2993,11 +2993,11 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3011,11 +3011,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3029,11 +3029,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3047,11 +3047,11 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3065,11 +3065,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3083,11 +3083,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3119,11 +3119,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3137,11 +3137,11 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3155,11 +3155,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3173,11 +3173,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3191,11 +3191,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3209,11 +3209,11 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3227,11 +3227,11 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3245,11 +3245,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3263,7 +3263,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3299,11 +3299,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3317,11 +3317,11 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3335,11 +3335,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3353,11 +3353,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -3371,11 +3371,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3389,11 +3389,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3407,11 +3407,11 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3425,11 +3425,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3443,11 +3443,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3461,11 +3461,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3479,11 +3479,11 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -3497,11 +3497,11 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3515,11 +3515,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3533,11 +3533,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -3551,11 +3551,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -3569,11 +3569,11 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -3587,11 +3587,11 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -3605,7 +3605,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3623,11 +3623,11 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -3641,11 +3641,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -3659,7 +3659,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3713,11 +3713,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -3731,11 +3731,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -3749,11 +3749,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -3767,11 +3767,11 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -3785,11 +3785,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3821,11 +3821,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -3839,11 +3839,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -3857,11 +3857,11 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -3875,11 +3875,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -3893,11 +3893,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -3911,11 +3911,11 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -3929,7 +3929,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3947,11 +3947,11 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -3965,11 +3965,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -3983,11 +3983,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4001,11 +4001,11 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4019,11 +4019,11 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4037,11 +4037,11 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4055,11 +4055,11 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4073,7 +4073,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4127,11 +4127,11 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4145,11 +4145,11 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4163,11 +4163,11 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4181,11 +4181,11 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4199,11 +4199,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -4217,11 +4217,11 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -4235,11 +4235,11 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4253,11 +4253,11 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4289,11 +4289,11 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4307,7 +4307,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4469,11 +4469,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -4487,11 +4487,11 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -4505,11 +4505,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -4523,11 +4523,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -4541,11 +4541,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -4559,11 +4559,11 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -4577,11 +4577,11 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -4595,7 +4595,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4613,11 +4613,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -4631,11 +4631,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -4649,7 +4649,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -4685,11 +4685,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -4703,11 +4703,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -4721,11 +4721,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -4739,11 +4739,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -4757,11 +4757,11 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -4775,11 +4775,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -4793,11 +4793,11 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -4811,11 +4811,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -4829,11 +4829,11 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -4847,11 +4847,11 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -4865,11 +4865,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -4883,11 +4883,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -4901,11 +4901,11 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -4919,11 +4919,11 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -4937,11 +4937,11 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -4955,11 +4955,11 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -4973,11 +4973,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -4991,11 +4991,11 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -5009,11 +5009,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5027,11 +5027,11 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -5045,11 +5045,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -5063,11 +5063,11 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -5081,11 +5081,11 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -5099,11 +5099,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -5117,11 +5117,11 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5135,11 +5135,11 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -5153,11 +5153,11 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -5171,7 +5171,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5189,11 +5189,11 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -5207,11 +5207,11 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -5225,11 +5225,11 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -5243,11 +5243,11 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -5261,11 +5261,11 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -5279,11 +5279,11 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -5297,230 +5297,14 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>179</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>179</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>179</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>180</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>181</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>182</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>182</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>183</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>183</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>183</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>183</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>183</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
         <is>
           <t>passed</t>
         </is>

--- a/Datasets/erreurs_999.xlsx
+++ b/Datasets/erreurs_999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,11 +473,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -491,11 +491,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -527,11 +527,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -545,11 +545,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -563,11 +563,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -599,11 +599,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -617,11 +617,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -635,11 +635,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -653,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -671,11 +671,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -689,11 +689,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -707,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -725,11 +725,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -743,11 +743,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -761,11 +761,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -779,11 +779,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -797,11 +797,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -815,11 +815,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -833,11 +833,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -851,7 +851,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -869,11 +869,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -887,11 +887,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -905,11 +905,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -923,11 +923,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -959,11 +959,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -977,11 +977,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1013,11 +1013,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1031,11 +1031,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1049,11 +1049,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1067,11 +1067,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1085,11 +1085,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1103,11 +1103,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1121,11 +1121,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1139,11 +1139,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1157,11 +1157,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1175,11 +1175,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1193,11 +1193,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1211,11 +1211,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1247,11 +1247,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1265,7 +1265,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1283,11 +1283,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1319,11 +1319,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1337,7 +1337,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1373,11 +1373,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1409,11 +1409,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1427,7 +1427,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1445,11 +1445,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1481,11 +1481,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1499,11 +1499,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1517,11 +1517,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1535,11 +1535,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1553,11 +1553,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1571,7 +1571,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1589,11 +1589,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1607,11 +1607,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1625,11 +1625,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1643,7 +1643,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1679,11 +1679,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1697,11 +1697,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1715,11 +1715,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1733,11 +1733,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1751,11 +1751,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1769,7 +1769,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1787,11 +1787,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1805,11 +1805,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1823,11 +1823,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1841,11 +1841,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -1859,11 +1859,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -1877,11 +1877,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -1895,11 +1895,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -1913,11 +1913,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1949,11 +1949,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -1967,11 +1967,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -1985,11 +1985,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2003,7 +2003,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2021,11 +2021,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2039,11 +2039,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2057,11 +2057,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2075,11 +2075,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2093,11 +2093,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2111,11 +2111,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2129,11 +2129,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2147,11 +2147,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2165,11 +2165,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2183,11 +2183,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2201,11 +2201,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2219,11 +2219,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2237,11 +2237,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2255,11 +2255,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2273,11 +2273,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2291,7 +2291,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2309,11 +2309,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2327,11 +2327,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2345,11 +2345,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2363,7 +2363,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2381,11 +2381,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2399,11 +2399,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2417,11 +2417,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2435,11 +2435,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2453,7 +2453,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2471,11 +2471,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2489,7 +2489,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2507,11 +2507,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2525,7 +2525,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2543,11 +2543,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2561,11 +2561,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2579,11 +2579,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2597,7 +2597,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2615,11 +2615,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2651,11 +2651,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2669,7 +2669,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2687,11 +2687,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2705,11 +2705,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2723,11 +2723,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2741,7 +2741,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2759,11 +2759,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -2777,11 +2777,11 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -2795,11 +2795,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -2813,11 +2813,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -2831,11 +2831,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -2849,11 +2849,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -2867,11 +2867,11 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -2885,11 +2885,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -2903,11 +2903,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -2921,11 +2921,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -2939,7 +2939,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2957,11 +2957,11 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -2975,11 +2975,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -2993,11 +2993,11 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3011,7 +3011,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3029,11 +3029,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3047,11 +3047,11 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3065,11 +3065,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3083,11 +3083,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3119,11 +3119,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3137,11 +3137,11 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3155,11 +3155,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3173,11 +3173,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3191,11 +3191,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3209,2102 +3209,14 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>124</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>124</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>125</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>125</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>127</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>127</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>127</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>127</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>127</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>128</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>128</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>128</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>128</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>128</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>129</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>130</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>131</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>131</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>131</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>133</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>133</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>133</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>134</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>135</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>137</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>138</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>138</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>138</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>138</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>138</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>139</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>140</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>140</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>140</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>140</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>140</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>141</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>141</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>141</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>142</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>142</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>143</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>144</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>144</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>144</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>144</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>144</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>145</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>146</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>146</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>148</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>148</v>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>148</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>148</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>148</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>149</v>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>149</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>149</v>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>149</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>149</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>150</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>150</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>150</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>150</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>150</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>151</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>151</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>151</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>151</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>152</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>153</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>154</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>154</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>154</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>154</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>154</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>155</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>155</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>156</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>156</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>156</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>157</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>158</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>159</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>159</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>159</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>159</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>159</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>161</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>162</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>162</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>162</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>163</v>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>163</v>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>163</v>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>164</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>164</v>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>164</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>165</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>167</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>168</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>168</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>168</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>170</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>170</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>170</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>170</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>170</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>171</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>173</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>173</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>174</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Keywords</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>174</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>174</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>174</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>174</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
         <is>
           <t>passed</t>
         </is>

--- a/Datasets/erreurs_999.xlsx
+++ b/Datasets/erreurs_999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D651"/>
+  <dimension ref="A1:D608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,11 +455,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -473,11 +473,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -527,11 +527,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -599,11 +599,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -617,11 +617,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -635,11 +635,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -653,11 +653,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -671,11 +671,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -689,11 +689,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -707,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -725,11 +725,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -743,11 +743,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -761,11 +761,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -779,11 +779,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -797,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -851,11 +851,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -869,11 +869,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -887,11 +887,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -905,11 +905,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -923,7 +923,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -941,11 +941,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -959,51 +959,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Too many commas in 'University of Twente, Department of Computer Science, P.O.Box 217, Enschede, 7500'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'University of Twente, Department of Computer Science, P.O.Box 217, Enschede, 7500'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 148, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'University of Twente, Department of Computer Science, P.O.Box 217, Enschede, 7500'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1012,11 +977,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1030,11 +995,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1048,11 +1013,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1066,11 +1031,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1084,11 +1049,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1102,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1120,11 +1085,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1138,7 +1103,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1156,7 +1121,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1174,11 +1139,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1192,11 +1157,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1210,11 +1175,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1228,11 +1193,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1246,11 +1211,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1264,11 +1229,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1282,11 +1247,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1300,11 +1265,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1318,11 +1283,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1336,11 +1301,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1354,11 +1319,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1372,11 +1337,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1390,11 +1355,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1408,11 +1373,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1426,11 +1391,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1444,7 +1409,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1462,11 +1427,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1480,11 +1445,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1498,7 +1463,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1516,11 +1481,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1534,11 +1499,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1552,11 +1517,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1570,11 +1535,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1588,11 +1553,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1606,11 +1571,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1624,11 +1589,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1642,11 +1607,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1660,11 +1625,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1678,11 +1643,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1696,11 +1661,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1714,11 +1679,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>all</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1732,7 +1697,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1750,11 +1715,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1768,7 +1733,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1786,11 +1751,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1804,11 +1769,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1822,11 +1787,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1840,7 +1805,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1858,11 +1823,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1876,7 +1841,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1894,11 +1859,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -1912,11 +1877,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -1930,51 +1895,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Too many commas in 'Wellington Institute of Technology (WelTec), Centre for Computational Intelligence, The Puni Mail Center, Private Bag 39803, Buick Street, Petone, Wellington'</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Wellington Institute of Technology (WelTec), Centre for Computational Intelligence, The Puni Mail Center, Private Bag 39803, Buick Street, Petone, Wellington'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Wellington Institute of Technology (WelTec), Centre for Computational Intelligence, The Puni Mail Center, Private Bag 39803, Buick Street, Petone, Wellington'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1913,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2001,11 +1931,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2019,11 +1949,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2037,51 +1967,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Too many commas in 'The University of Liverpool. Department of Computer Science, Chadwick Building, Peach Street, Liverpool, L69 7ZF'</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'The University of Liverpool. Department of Computer Science, Chadwick Building, Peach Street, Liverpool, L69 7ZF'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 148, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'The University of Liverpool. Department of Computer Science, Chadwick Building, Peach Street, Liverpool, L69 7ZF'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2090,11 +1985,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2108,11 +2003,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2126,51 +2021,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Too many commas in 'Information Systems, 585 TNRB, P.O. Box 23087, Provo, 84602-3087, UT'</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Information Systems, 585 TNRB, P.O. Box 23087, Provo, 84602-3087, UT'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 148, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Information Systems, 585 TNRB, P.O. Box 23087, Provo, 84602-3087, UT'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2179,11 +2039,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2197,11 +2057,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2215,7 +2075,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2233,11 +2093,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2251,11 +2111,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2269,11 +2129,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2287,11 +2147,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2305,11 +2165,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2323,11 +2183,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2341,11 +2201,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2359,11 +2219,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2377,11 +2237,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2395,11 +2255,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2413,11 +2273,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2431,11 +2291,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2449,11 +2309,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2467,11 +2327,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2485,7 +2345,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2503,7 +2363,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2521,11 +2381,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2539,11 +2399,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2557,11 +2417,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2575,7 +2435,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2593,11 +2453,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2611,11 +2471,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2629,33 +2489,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>descriptor 'lower' for 'str' objects doesn't apply to a 'NoneType' object</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 135, in get_metadata_from_link
-    if not check_if_right_link(new_metadata, title):
-           ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 208, in check_if_right_link
-    tmp_meta_title = clean_title(new_metadata['Title'])
-                     ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/SRProject.py", line 195, in clean_title
-    tmp_title = re.sub(r"\\'", '', str.lower(tmp_title))
-                                   ^^^^^^^^^^^^^^^^^^^^
-TypeError: descriptor 'lower' for 'str' objects doesn't apply to a 'NoneType' object
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2664,51 +2507,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Too many commas in 'Computing Science, P.O. Box 800, Groningen, 9700 AV'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Computing Science, P.O. Box 800, Groningen, 9700 AV'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Computing Science, P.O. Box 800, Groningen, 9700 AV'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2717,11 +2525,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2735,11 +2543,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2753,11 +2561,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2771,11 +2579,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2789,11 +2597,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2807,51 +2615,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Too many commas in 'Information Technology, Merckstrasse 25, Darmstadt, D-64283'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Information Technology, Merckstrasse 25, Darmstadt, D-64283'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 148, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Information Technology, Merckstrasse 25, Darmstadt, D-64283'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -2860,11 +2633,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2878,7 +2651,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2896,11 +2669,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2914,11 +2687,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2932,7 +2705,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2950,7 +2723,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2968,11 +2741,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -2986,11 +2759,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3004,11 +2777,11 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3022,51 +2795,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Too many commas in 'Technical University of Vienna, Information Systems Institute, Distributed Systems Group, Argentinierstr. 8/184-1, Vienna, 1040'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Technical University of Vienna, Information Systems Institute, Distributed Systems Group, Argentinierstr. 8/184-1, Vienna, 1040'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Technical University of Vienna, Information Systems Institute, Distributed Systems Group, Argentinierstr. 8/184-1, Vienna, 1040'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -3075,11 +2813,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3093,11 +2831,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3111,11 +2849,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3129,7 +2867,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3147,11 +2885,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3165,7 +2903,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3183,11 +2921,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3201,7 +2939,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3219,11 +2957,11 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3237,11 +2975,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3255,11 +2993,11 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3273,11 +3011,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3291,11 +3029,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3309,11 +3047,11 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3327,11 +3065,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3345,7 +3083,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3363,11 +3101,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3381,11 +3119,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3399,27 +3137,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>argument of type 'NoneType' is not iterable</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 128, in get_metadata_from_link
-    if source == IEEE or source == 'ieee' or 'Institute of Electrical and Electronics Engineers' in source:
-                                             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: argument of type 'NoneType' is not iterable
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -3428,11 +3155,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3446,11 +3173,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3464,11 +3191,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3482,11 +3209,11 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3500,7 +3227,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3518,11 +3245,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3536,11 +3263,11 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3554,7 +3281,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3572,11 +3299,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3590,11 +3317,11 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3608,11 +3335,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3626,7 +3353,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3644,11 +3371,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3662,7 +3389,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3680,7 +3407,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3698,7 +3425,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3716,11 +3443,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3734,11 +3461,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3752,11 +3479,11 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -3770,11 +3497,11 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3788,11 +3515,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3806,51 +3533,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Too many commas in 'Universität Magdeburg, Institut für Verteilte Systeme, Universitätsplatz 2, Magdeburg, 39106'</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Universität Magdeburg, Institut für Verteilte Systeme, Universitätsplatz 2, Magdeburg, 39106'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Universität Magdeburg, Institut für Verteilte Systeme, Universitätsplatz 2, Magdeburg, 39106'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -3859,11 +3551,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -3877,11 +3569,11 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -3895,11 +3587,11 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -3913,11 +3605,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -3931,11 +3623,11 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -3949,7 +3641,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3967,7 +3659,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3985,7 +3677,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4003,11 +3695,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4021,51 +3713,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Too many commas in 'Oracle Corporation, 3 Bethesda Metro Center, Suite 1400, Bethesda, 20814, MD'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Oracle Corporation, 3 Bethesda Metro Center, Suite 1400, Bethesda, 20814, MD'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Oracle Corporation, 3 Bethesda Metro Center, Suite 1400, Bethesda, 20814, MD'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -4074,11 +3731,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4092,11 +3749,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4110,7 +3767,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4128,7 +3785,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4146,11 +3803,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4164,7 +3821,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4182,7 +3839,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4200,11 +3857,11 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4218,11 +3875,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4236,11 +3893,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4254,51 +3911,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Too many commas in 'Hebei University of Technology, Hongqiao District, Tianjin, 300130'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Hebei University of Technology, Hongqiao District, Tianjin, 300130'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 148, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Hebei University of Technology, Hongqiao District, Tianjin, 300130'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -4307,11 +3929,11 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4325,11 +3947,11 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4343,7 +3965,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4361,11 +3983,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4379,11 +4001,11 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4397,11 +4019,11 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4415,11 +4037,11 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4433,7 +4055,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4451,7 +4073,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4469,11 +4091,11 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4487,7 +4109,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4505,7 +4127,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4523,11 +4145,11 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4541,7 +4163,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4559,7 +4181,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4577,11 +4199,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -4595,7 +4217,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4613,11 +4235,11 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4631,11 +4253,11 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -4649,11 +4271,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4667,11 +4289,11 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4685,11 +4307,11 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -4703,11 +4325,11 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -4721,7 +4343,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -4739,11 +4361,11 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -4757,7 +4379,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4775,11 +4397,11 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -4793,11 +4415,11 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4811,11 +4433,11 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -4829,7 +4451,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4847,11 +4469,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -4865,11 +4487,11 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -4883,7 +4505,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -4901,11 +4523,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -4919,11 +4541,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -4937,11 +4559,11 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -4955,7 +4577,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4973,11 +4595,11 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -4991,11 +4613,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5009,11 +4631,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5027,11 +4649,11 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5045,11 +4667,11 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5063,11 +4685,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5081,11 +4703,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5099,11 +4721,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5117,11 +4739,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5135,11 +4757,11 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5153,11 +4775,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5171,11 +4793,11 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5189,7 +4811,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5207,11 +4829,11 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5225,11 +4847,11 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5243,7 +4865,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -5261,11 +4883,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5279,7 +4901,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -5297,11 +4919,11 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5315,11 +4937,11 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5333,11 +4955,11 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5351,11 +4973,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5369,11 +4991,11 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -5387,11 +5009,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5405,11 +5027,11 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -5423,11 +5045,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -5441,7 +5063,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5459,11 +5081,11 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -5477,11 +5099,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -5495,11 +5117,11 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5513,11 +5135,11 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -5531,7 +5153,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>269</v>
+        <v>187</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5549,51 +5171,16 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Too many commas in 'Universität Wien, Institut für Angewandte Informatik und Informationssysteme, Liebiggasse 4/3-4, Wien, A-1010'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Universität Wien, Institut für Angewandte Informatik und Informationssysteme, Liebiggasse 4/3-4, Wien, A-1010'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 148, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Universität Wien, Institut für Angewandte Informatik und Informationssysteme, Liebiggasse 4/3-4, Wien, A-1010'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -5602,11 +5189,11 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -5620,11 +5207,11 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -5638,11 +5225,11 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -5656,11 +5243,11 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -5674,11 +5261,11 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -5692,11 +5279,11 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -5710,11 +5297,11 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -5728,11 +5315,11 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -5746,11 +5333,11 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -5764,11 +5351,11 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -5782,7 +5369,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5800,11 +5387,11 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -5818,51 +5405,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Too many commas in 'Universidad de Cantabria, Departamento de Electrónica y Computadores, Avda. de los Castros s/n, Santander, E-39005'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Universidad de Cantabria, Departamento de Electrónica y Computadores, Avda. de los Castros s/n, Santander, E-39005'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Universidad de Cantabria, Departamento de Electrónica y Computadores, Avda. de los Castros s/n, Santander, E-39005'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -5871,11 +5423,11 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -5889,11 +5441,11 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -5907,11 +5459,11 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -5925,7 +5477,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -5943,11 +5495,11 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -5961,7 +5513,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -5979,11 +5531,11 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -5997,11 +5549,11 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6015,11 +5567,11 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6033,7 +5585,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -6051,7 +5603,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -6069,7 +5621,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>295</v>
+        <v>218</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -6087,51 +5639,16 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>296</v>
+        <v>220</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Too many commas in 'University of Berne, Neubruckstr. 10, Berne, CH-3012'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'University of Berne, Neubruckstr. 10, Berne, CH-3012'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'University of Berne, Neubruckstr. 10, Berne, CH-3012'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -6140,51 +5657,16 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Too many commas in 'Deutsches Forschungszentrum für Künstliche Intelligenz, Postfach 20 80, Kaiserslautern, D-67608'</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Deutsches Forschungszentrum für Künstliche Intelligenz, Postfach 20 80, Kaiserslautern, D-67608'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Deutsches Forschungszentrum für Künstliche Intelligenz, Postfach 20 80, Kaiserslautern, D-67608'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -6193,7 +5675,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -6211,11 +5693,11 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6229,11 +5711,11 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6247,7 +5729,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -6265,11 +5747,11 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>301</v>
+        <v>223</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6283,11 +5765,11 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -6301,7 +5783,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -6319,7 +5801,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -6337,11 +5819,11 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -6355,11 +5837,11 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -6373,11 +5855,11 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -6391,11 +5873,11 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>309</v>
+        <v>228</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -6409,11 +5891,11 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -6427,11 +5909,11 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -6445,11 +5927,11 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -6463,51 +5945,16 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Too many commas in 'United Nations University, International Institute for Software Technology, P.O. Box 3058, Macau'</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'United Nations University, International Institute for Software Technology, P.O. Box 3058, Macau'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'United Nations University, International Institute for Software Technology, P.O. Box 3058, Macau'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -6516,11 +5963,11 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -6534,11 +5981,11 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -6552,11 +5999,11 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -6570,11 +6017,11 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -6588,7 +6035,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -6606,11 +6053,11 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -6624,11 +6071,11 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -6642,7 +6089,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -6660,7 +6107,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -6678,7 +6125,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -6696,7 +6143,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -6714,11 +6161,11 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -6732,11 +6179,11 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -6750,7 +6197,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -6768,52 +6215,16 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: Reached error page: about:neterror?e=dnsNotFound&amp;u=http%3A//pub.chinasciencejournal.com/article/getArticleRedirect.action%3FdoiCode%3D10.3724/SP.J.1087.2009.02541&amp;c=UTF-8&amp;d=We%20can%E2%80%99t%20connect%20to%20the%20server%20at%20pub.chinasciencejournal.com.
-Stacktrace:
-RemoteError@chrome://remote/content/shared/RemoteError.sys.mjs:8:8
-WebDriverError@chrome://remote/content/shared/webdriver/Errors.sys.mjs:193:5
-UnknownError@chrome://remote/content/shared/webdriver/Errors.sys.mjs:832:5
-checkReadyState@chrome://remote/content/marionette/navigate.sys.mjs:58:24
-onNavigation@chrome://remote/content/marionette/navigate.sys.mjs:344:39
-emit@resource://gre/modules/EventEmitter.sys.mjs:148:20
-receiveMessage@chrome://remote/content/marionette/actors/MarionetteEventsParent.sys.mjs:33:25
-</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 122, in get_metadata_from_link
-    source = self.get_source_from_doi_with_url(link)
-             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 94, in get_source_from_doi_with_url
-    self.driver.get(link)
-  File "/usr/lib/python3/dist-packages/selenium/webdriver/remote/webdriver.py", line 356, in get
-    self.execute(Command.GET, {"url": url})
-  File "/usr/lib/python3/dist-packages/selenium/webdriver/remote/webdriver.py", line 347, in execute
-    self.error_handler.check_response(response)
-  File "/usr/lib/python3/dist-packages/selenium/webdriver/remote/errorhandler.py", line 229, in check_response
-    raise exception_class(message, screen, stacktrace)
-selenium.common.exceptions.WebDriverException: Message: Reached error page: about:neterror?e=dnsNotFound&amp;u=http%3A//pub.chinasciencejournal.com/article/getArticleRedirect.action%3FdoiCode%3D10.3724/SP.J.1087.2009.02541&amp;c=UTF-8&amp;d=We%20can%E2%80%99t%20connect%20to%20the%20server%20at%20pub.chinasciencejournal.com.
-Stacktrace:
-RemoteError@chrome://remote/content/shared/RemoteError.sys.mjs:8:8
-WebDriverError@chrome://remote/content/shared/webdriver/Errors.sys.mjs:193:5
-UnknownError@chrome://remote/content/shared/webdriver/Errors.sys.mjs:832:5
-checkReadyState@chrome://remote/content/marionette/navigate.sys.mjs:58:24
-onNavigation@chrome://remote/content/marionette/navigate.sys.mjs:344:39
-emit@resource://gre/modules/EventEmitter.sys.mjs:148:20
-receiveMessage@chrome://remote/content/marionette/actors/MarionetteEventsParent.sys.mjs:33:25
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -6822,7 +6233,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -6840,7 +6251,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>334</v>
+        <v>254</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -6858,11 +6269,11 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -6876,11 +6287,11 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -6894,11 +6305,11 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -6912,11 +6323,11 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -6930,11 +6341,11 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -6948,11 +6359,11 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -6966,51 +6377,16 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Too many commas in 'Computer Science, Dabrowskiego 73, Czȩstochowa, 42-200'</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Computer Science, Dabrowskiego 73, Czȩstochowa, 42-200'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Computer Science, Dabrowskiego 73, Czȩstochowa, 42-200'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7019,11 +6395,11 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -7037,7 +6413,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -7055,7 +6431,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -7073,7 +6449,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -7091,11 +6467,11 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -7109,11 +6485,11 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -7127,11 +6503,11 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>348</v>
+        <v>269</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -7145,11 +6521,11 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -7163,7 +6539,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -7181,7 +6557,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -7199,11 +6575,11 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7217,11 +6593,11 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -7235,7 +6611,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -7253,11 +6629,11 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -7271,7 +6647,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>359</v>
+        <v>277</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -7289,7 +6665,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>360</v>
+        <v>278</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -7307,11 +6683,11 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>362</v>
+        <v>278</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -7325,7 +6701,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>365</v>
+        <v>279</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -7343,11 +6719,11 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -7361,11 +6737,11 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -7379,7 +6755,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -7397,7 +6773,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -7415,11 +6791,11 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -7433,7 +6809,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -7451,11 +6827,11 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -7469,7 +6845,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -7487,11 +6863,11 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>371</v>
+        <v>290</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -7505,11 +6881,11 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -7523,51 +6899,16 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>373</v>
+        <v>295</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Too many commas in 'Loughborough University, Leicestershire, LE11 3TU, Loughborough'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Loughborough University, Leicestershire, LE11 3TU, Loughborough'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 148, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Loughborough University, Leicestershire, LE11 3TU, Loughborough'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -7576,11 +6917,11 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -7594,11 +6935,11 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>376</v>
+        <v>296</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -7612,11 +6953,11 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>377</v>
+        <v>296</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -7630,11 +6971,11 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>377</v>
+        <v>296</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -7648,11 +6989,11 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>377</v>
+        <v>296</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -7666,7 +7007,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -7684,11 +7025,11 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -7702,11 +7043,11 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -7720,11 +7061,11 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>385</v>
+        <v>303</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -7738,11 +7079,11 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>385</v>
+        <v>303</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -7756,11 +7097,11 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>386</v>
+        <v>304</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -7774,11 +7115,11 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>386</v>
+        <v>304</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -7792,11 +7133,11 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -7810,7 +7151,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>390</v>
+        <v>308</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -7828,11 +7169,11 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>390</v>
+        <v>308</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -7846,7 +7187,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>392</v>
+        <v>310</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -7864,7 +7205,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>392</v>
+        <v>310</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -7882,11 +7223,11 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>393</v>
+        <v>310</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -7900,7 +7241,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -7918,11 +7259,11 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -7936,7 +7277,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -7954,11 +7295,11 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>401</v>
+        <v>317</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -7972,11 +7313,11 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -7990,11 +7331,11 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -8008,11 +7349,11 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>406</v>
+        <v>320</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -8026,11 +7367,11 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>406</v>
+        <v>321</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -8044,11 +7385,11 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -8062,11 +7403,11 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -8080,11 +7421,11 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -8098,11 +7439,11 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -8116,11 +7457,11 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>412</v>
+        <v>325</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -8134,7 +7475,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -8152,11 +7493,11 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -8170,11 +7511,11 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -8188,7 +7529,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>419</v>
+        <v>327</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -8206,7 +7547,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>421</v>
+        <v>328</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -8224,11 +7565,11 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>422</v>
+        <v>331</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -8242,7 +7583,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -8260,27 +7601,16 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>argument of type 'NoneType' is not iterable</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 128, in get_metadata_from_link
-    if source == IEEE or source == 'ieee' or 'Institute of Electrical and Electronics Engineers' in source:
-                                             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: argument of type 'NoneType' is not iterable
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -8289,11 +7619,11 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>427</v>
+        <v>333</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -8307,7 +7637,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>429</v>
+        <v>337</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -8325,11 +7655,11 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>429</v>
+        <v>338</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -8343,51 +7673,16 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>433</v>
+        <v>340</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Too many commas in "Université Montpellier II, UMR 5506 CNRS, LIRMM - Laboratoire d'Informatique, de Robotique et de Microélectronique de Montpellier, 161, Rue Ada, Montpellier, 34392"</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in "Université Montpellier II, UMR 5506 CNRS, LIRMM - Laboratoire d'Informatique, de Robotique et de Microélectronique de Montpellier, 161, Rue Ada, Montpellier, 34392"
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in "Université Montpellier II, UMR 5506 CNRS, LIRMM - Laboratoire d'Informatique, de Robotique et de Microélectronique de Montpellier, 161, Rue Ada, Montpellier, 34392"
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -8396,7 +7691,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -8414,11 +7709,11 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>436</v>
+        <v>341</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -8432,7 +7727,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>436</v>
+        <v>342</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -8450,7 +7745,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>436</v>
+        <v>342</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -8468,11 +7763,11 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>440</v>
+        <v>342</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -8486,11 +7781,11 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>441</v>
+        <v>347</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -8504,7 +7799,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>442</v>
+        <v>348</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -8522,11 +7817,11 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>442</v>
+        <v>348</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -8540,7 +7835,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -8558,11 +7853,11 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>445</v>
+        <v>349</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -8576,11 +7871,11 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>446</v>
+        <v>350</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -8594,11 +7889,11 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>446</v>
+        <v>350</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -8612,11 +7907,11 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -8630,11 +7925,11 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>448</v>
+        <v>351</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -8648,11 +7943,11 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>449</v>
+        <v>352</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -8666,11 +7961,11 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>449</v>
+        <v>352</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -8684,11 +7979,11 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>451</v>
+        <v>354</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -8702,11 +7997,11 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -8720,7 +8015,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -8738,11 +8033,11 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>453</v>
+        <v>360</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -8756,11 +8051,11 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>454</v>
+        <v>360</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -8774,11 +8069,11 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>454</v>
+        <v>361</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -8792,11 +8087,11 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>457</v>
+        <v>362</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -8810,11 +8105,11 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>457</v>
+        <v>362</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -8828,11 +8123,11 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>457</v>
+        <v>362</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -8846,7 +8141,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>458</v>
+        <v>366</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -8864,11 +8159,11 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>459</v>
+        <v>366</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -8882,11 +8177,11 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>461</v>
+        <v>368</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -8900,7 +8195,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>461</v>
+        <v>369</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -8918,11 +8213,11 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>462</v>
+        <v>369</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -8936,11 +8231,11 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>463</v>
+        <v>370</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -8954,7 +8249,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>463</v>
+        <v>374</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -8972,7 +8267,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>465</v>
+        <v>377</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -8990,11 +8285,11 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>469</v>
+        <v>378</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -9008,11 +8303,11 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>469</v>
+        <v>378</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -9026,11 +8321,11 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -9044,11 +8339,11 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -9062,11 +8357,11 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -9080,7 +8375,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>472</v>
+        <v>384</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -9098,11 +8393,11 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>473</v>
+        <v>384</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -9116,11 +8411,11 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>475</v>
+        <v>386</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -9134,11 +8429,11 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>475</v>
+        <v>386</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -9152,11 +8447,11 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -9170,11 +8465,11 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>477</v>
+        <v>387</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -9188,11 +8483,11 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -9206,11 +8501,11 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -9224,11 +8519,11 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -9242,11 +8537,11 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -9260,11 +8555,11 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>479</v>
+        <v>394</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -9278,11 +8573,11 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>480</v>
+        <v>396</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -9296,11 +8591,11 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>480</v>
+        <v>399</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -9314,7 +8609,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>480</v>
+        <v>401</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -9332,11 +8627,11 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>480</v>
+        <v>402</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -9350,11 +8645,11 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>482</v>
+        <v>402</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -9368,11 +8663,11 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>486</v>
+        <v>402</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -9386,7 +8681,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -9404,11 +8699,11 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -9422,11 +8717,11 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>489</v>
+        <v>409</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -9440,11 +8735,11 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>489</v>
+        <v>409</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -9458,11 +8753,11 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -9476,11 +8771,11 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -9494,11 +8789,11 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>491</v>
+        <v>410</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -9512,11 +8807,11 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>493</v>
+        <v>413</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -9530,7 +8825,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>494</v>
+        <v>413</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -9548,7 +8843,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>496</v>
+        <v>413</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -9566,11 +8861,11 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>497</v>
+        <v>414</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -9584,7 +8879,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>498</v>
+        <v>415</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -9602,11 +8897,11 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>500</v>
+        <v>415</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -9620,7 +8915,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>500</v>
+        <v>415</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -9638,11 +8933,11 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>501</v>
+        <v>416</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -9656,11 +8951,11 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>502</v>
+        <v>416</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -9674,11 +8969,11 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>504</v>
+        <v>416</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -9692,7 +8987,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>505</v>
+        <v>417</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -9710,7 +9005,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>506</v>
+        <v>419</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -9728,11 +9023,11 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>507</v>
+        <v>422</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -9746,11 +9041,11 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>508</v>
+        <v>422</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -9764,11 +9059,11 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>509</v>
+        <v>423</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -9782,11 +9077,11 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>509</v>
+        <v>423</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -9800,11 +9095,11 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>510</v>
+        <v>424</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -9818,11 +9113,11 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>510</v>
+        <v>424</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -9836,11 +9131,11 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>512</v>
+        <v>425</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -9854,11 +9149,11 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>513</v>
+        <v>425</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -9872,11 +9167,11 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>513</v>
+        <v>426</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -9890,11 +9185,11 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>513</v>
+        <v>426</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -9908,11 +9203,11 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>513</v>
+        <v>427</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -9926,51 +9221,16 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>514</v>
+        <v>427</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Too many commas in 'Fraunhofer IESE, Sauerwiesen 6, Kaiserslautern, 67661'</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Fraunhofer IESE, Sauerwiesen 6, Kaiserslautern, 67661'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Fraunhofer IESE, Sauerwiesen 6, Kaiserslautern, 67661'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -9979,11 +9239,11 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>515</v>
+        <v>431</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -9997,11 +9257,11 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>516</v>
+        <v>431</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -10015,11 +9275,11 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>516</v>
+        <v>433</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -10033,11 +9293,11 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>518</v>
+        <v>442</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -10051,11 +9311,11 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>518</v>
+        <v>443</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -10069,7 +9329,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>520</v>
+        <v>443</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
@@ -10087,11 +9347,11 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -10105,11 +9365,11 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>523</v>
+        <v>446</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -10123,7 +9383,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>524</v>
+        <v>446</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -10141,7 +9401,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>524</v>
+        <v>446</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -10159,11 +9419,11 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>525</v>
+        <v>446</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -10177,11 +9437,11 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>525</v>
+        <v>449</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -10195,7 +9455,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>526</v>
+        <v>450</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
@@ -10213,11 +9473,11 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>527</v>
+        <v>450</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -10231,11 +9491,11 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>527</v>
+        <v>452</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -10249,11 +9509,11 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>527</v>
+        <v>454</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -10267,11 +9527,11 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>527</v>
+        <v>454</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -10285,11 +9545,11 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>531</v>
+        <v>454</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -10303,7 +9563,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>531</v>
+        <v>455</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
@@ -10321,11 +9581,11 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>532</v>
+        <v>457</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -10339,11 +9599,11 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -10357,7 +9617,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>534</v>
+        <v>465</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
@@ -10375,7 +9635,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
@@ -10393,11 +9653,11 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -10411,11 +9671,11 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>537</v>
+        <v>476</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -10429,7 +9689,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>538</v>
+        <v>477</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
@@ -10447,11 +9707,11 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>538</v>
+        <v>477</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -10465,11 +9725,11 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -10483,11 +9743,11 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>539</v>
+        <v>482</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -10501,27 +9761,16 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>541</v>
+        <v>482</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>argument of type 'NoneType' is not iterable</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 128, in get_metadata_from_link
-    if source == IEEE or source == 'ieee' or 'Institute of Electrical and Electronics Engineers' in source:
-                                             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: argument of type 'NoneType' is not iterable
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -10530,7 +9779,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
@@ -10548,27 +9797,16 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>argument of type 'NoneType' is not iterable</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 161, in extract_with_link
-    metadata = web_scraper.get_metadata_from_link(row['title'], url, source)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/webScraping.py", line 128, in get_metadata_from_link
-    if source == IEEE or source == 'ieee' or 'Institute of Electrical and Electronics Engineers' in source:
-                                             ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-TypeError: argument of type 'NoneType' is not iterable
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -10577,11 +9815,11 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>546</v>
+        <v>485</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -10595,7 +9833,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
@@ -10613,11 +9851,11 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -10631,11 +9869,11 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -10649,51 +9887,16 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>550</v>
+        <v>486</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Too many commas in 'Philips Research Laboratories, Prof. Holstlaan 4, Eindhoven, 5656 AA'</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Philips Research Laboratories, Prof. Holstlaan 4, Eindhoven, 5656 AA'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Philips Research Laboratories, Prof. Holstlaan 4, Eindhoven, 5656 AA'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -10702,11 +9905,11 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>551</v>
+        <v>487</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -10720,11 +9923,11 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>553</v>
+        <v>488</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -10738,11 +9941,11 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>554</v>
+        <v>488</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -10756,11 +9959,11 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -10774,7 +9977,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
@@ -10792,11 +9995,11 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -10810,7 +10013,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>558</v>
+        <v>490</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
@@ -10828,7 +10031,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>559</v>
+        <v>491</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
@@ -10846,7 +10049,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>560</v>
+        <v>492</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
@@ -10864,11 +10067,11 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>561</v>
+        <v>492</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -10882,7 +10085,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>562</v>
+        <v>493</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
@@ -10900,11 +10103,11 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>562</v>
+        <v>494</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -10918,11 +10121,11 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -10936,11 +10139,11 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -10954,11 +10157,11 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>DOI</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -10972,11 +10175,11 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -10990,11 +10193,11 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -11008,7 +10211,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -11026,11 +10229,11 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>571</v>
+        <v>499</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -11044,11 +10247,11 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>571</v>
+        <v>499</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -11062,11 +10265,11 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>573</v>
+        <v>500</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -11080,11 +10283,11 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>576</v>
+        <v>500</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -11098,51 +10301,16 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>577</v>
+        <v>500</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Too many commas in 'Aalborg University Esbjerg, Department of Computer Science, Niels Bohrs Vej 8, Esbjerg, 6700'</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Aalborg University Esbjerg, Department of Computer Science, Niels Bohrs Vej 8, Esbjerg, 6700'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Aalborg University Esbjerg, Department of Computer Science, Niels Bohrs Vej 8, Esbjerg, 6700'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -11151,11 +10319,11 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>579</v>
+        <v>501</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -11169,11 +10337,11 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>583</v>
+        <v>502</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -11187,11 +10355,11 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>584</v>
+        <v>502</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -11205,11 +10373,11 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>584</v>
+        <v>503</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -11223,11 +10391,11 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>587</v>
+        <v>503</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -11241,11 +10409,11 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>587</v>
+        <v>504</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -11259,11 +10427,11 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>589</v>
+        <v>504</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -11277,11 +10445,11 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>590</v>
+        <v>505</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -11295,11 +10463,11 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>590</v>
+        <v>506</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -11313,11 +10481,11 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>590</v>
+        <v>506</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -11331,11 +10499,11 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>591</v>
+        <v>507</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -11349,11 +10517,11 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>592</v>
+        <v>507</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -11367,7 +10535,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>593</v>
+        <v>508</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
@@ -11385,11 +10553,11 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>595</v>
+        <v>510</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -11403,11 +10571,11 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>596</v>
+        <v>511</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -11421,7 +10589,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>598</v>
+        <v>511</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
@@ -11439,11 +10607,11 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>598</v>
+        <v>512</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -11457,11 +10625,11 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -11475,7 +10643,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>601</v>
+        <v>513</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
@@ -11493,7 +10661,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>602</v>
+        <v>514</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
@@ -11511,51 +10679,16 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>603</v>
+        <v>515</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Too many commas in 'Fraunhofer Institut, Experimental Software Engineering, Sauerwiesen 6, Kaiserslautern, 67661'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Fraunhofer Institut, Experimental Software Engineering, Sauerwiesen 6, Kaiserslautern, 67661'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 263, in main
-    metadata = extract_without_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 101, in extract_without_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Fraunhofer Institut, Experimental Software Engineering, Sauerwiesen 6, Kaiserslautern, 67661'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -11564,7 +10697,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>605</v>
+        <v>516</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
@@ -11582,11 +10715,11 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>606</v>
+        <v>517</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Abstract</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -11600,11 +10733,11 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>607</v>
+        <v>517</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -11618,11 +10751,11 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>608</v>
+        <v>517</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -11636,11 +10769,11 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>612</v>
+        <v>518</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -11654,7 +10787,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>612</v>
+        <v>520</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
@@ -11672,11 +10805,11 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>613</v>
+        <v>520</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -11690,11 +10823,11 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>616</v>
+        <v>528</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -11708,11 +10841,11 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>616</v>
+        <v>528</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -11726,7 +10859,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
@@ -11744,7 +10877,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
@@ -11762,11 +10895,11 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>620</v>
+        <v>533</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -11780,11 +10913,11 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>620</v>
+        <v>535</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>Publisher</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -11798,11 +10931,11 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>620</v>
+        <v>536</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -11816,11 +10949,11 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>620</v>
+        <v>536</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -11834,11 +10967,11 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>622</v>
+        <v>536</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -11852,11 +10985,11 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>622</v>
+        <v>537</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -11870,11 +11003,11 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>624</v>
+        <v>537</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -11888,7 +11021,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>624</v>
+        <v>538</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
@@ -11906,51 +11039,16 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>625</v>
+        <v>539</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Too many commas in 'Computer Science, Dabrowskiego 73, Czȩstochowa, 42-200'</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Computer Science, Dabrowskiego 73, Czȩstochowa, 42-200'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 148, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Computer Science, Dabrowskiego 73, Czȩstochowa, 42-200'
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -11959,11 +11057,11 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>626</v>
+        <v>540</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -11977,11 +11075,11 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>626</v>
+        <v>540</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -11995,11 +11093,11 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>628</v>
+        <v>541</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -12013,7 +11111,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>630</v>
+        <v>543</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
@@ -12031,11 +11129,11 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>630</v>
+        <v>544</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -12049,11 +11147,11 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>631</v>
+        <v>545</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -12067,11 +11165,11 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>632</v>
+        <v>545</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -12085,7 +11183,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>632</v>
+        <v>546</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
@@ -12103,11 +11201,11 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -12121,11 +11219,11 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>634</v>
+        <v>548</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -12139,11 +11237,11 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>635</v>
+        <v>551</v>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Keywords</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -12157,7 +11255,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>636</v>
+        <v>551</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
@@ -12175,11 +11273,11 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>636</v>
+        <v>551</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -12193,24 +11291,16 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>'NoneType' object does not support item assignment</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 169, in extract_with_link
-    metadata['Link'] = url
-    ~~~~~~~~^^^^^^^^
-TypeError: 'NoneType' object does not support item assignment
-</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -12219,11 +11309,11 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>638</v>
+        <v>553</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -12237,7 +11327,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>645</v>
+        <v>554</v>
       </c>
       <c r="C606" t="inlineStr">
         <is>
@@ -12255,11 +11345,11 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>647</v>
+        <v>554</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -12273,831 +11363,14 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>647</v>
+        <v>555</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>References</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>648</v>
-      </c>
-      <c r="C609" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>649</v>
-      </c>
-      <c r="C610" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>650</v>
-      </c>
-      <c r="C611" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D611" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>651</v>
-      </c>
-      <c r="C612" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>652</v>
-      </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>Too many commas in 'Computer Science, National University of Singapore, Lower Kent Ridge Road, Singapore, 119260'</t>
-        </is>
-      </c>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 51, in get_from_already_extract
-    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
-                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 177, in get_metadata_from_already_extract
-    bib_data = parser.parse_file(f'{EXTRACTED_PATH}/Bibtex/{file}')
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/__init__.py", line 54, in parse_file
-    self.parse_stream(f)
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 412, in parse_stream
-    return self.parse_string(text)
-           ^^^^^^^^^^^^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 407, in parse_string
-    self.process_entry(entry_type, *entry[1])
-  File "/usr/lib/python3/dist-packages/pybtex/database/input/bibtex.py", line 370, in process_entry
-    entry.add_person(Person(name), field_name)
-                     ^^^^^^^^^^^^
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 620, in __init__
-    self._parse_string(string)
-  File "/usr/lib/python3/dist-packages/pybtex/database/__init__.py", line 749, in _parse_string
-    report_error(InvalidNameString(name))
-  File "/usr/lib/python3/dist-packages/pybtex/errors.py", line 78, in report_error
-    raise exception
-pybtex.database.InvalidNameString: Too many commas in 'Computer Science, National University of Singapore, Lower Kent Ridge Road, Singapore, 119260'
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 148, in extract_with_link
-    metadata = get_from_already_extract(formated_name, already_extracted_files)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 60, in get_from_already_extract
-    raise Exception(e)
-Exception: Too many commas in 'Computer Science, National University of Singapore, Lower Kent Ridge Road, Singapore, 119260'
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>656</v>
-      </c>
-      <c r="C614" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>656</v>
-      </c>
-      <c r="C615" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D615" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>658</v>
-      </c>
-      <c r="C616" t="inlineStr">
-        <is>
-          <t>Venue</t>
-        </is>
-      </c>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>658</v>
-      </c>
-      <c r="C617" t="inlineStr">
-        <is>
-          <t>Authors</t>
-        </is>
-      </c>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>658</v>
-      </c>
-      <c r="C618" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D618" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>658</v>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>659</v>
-      </c>
-      <c r="C620" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="n">
-        <v>660</v>
-      </c>
-      <c r="C621" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D621" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="n">
-        <v>660</v>
-      </c>
-      <c r="C622" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="n">
-        <v>661</v>
-      </c>
-      <c r="C623" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D623" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="n">
-        <v>662</v>
-      </c>
-      <c r="C624" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D624" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="n">
-        <v>664</v>
-      </c>
-      <c r="C625" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D625" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="n">
-        <v>664</v>
-      </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>DOI</t>
-        </is>
-      </c>
-      <c r="D626" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="n">
-        <v>666</v>
-      </c>
-      <c r="C627" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="n">
-        <v>667</v>
-      </c>
-      <c r="C628" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="n">
-        <v>667</v>
-      </c>
-      <c r="C629" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D629" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="n">
-        <v>668</v>
-      </c>
-      <c r="C630" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D630" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="n">
-        <v>669</v>
-      </c>
-      <c r="C631" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D631" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="n">
-        <v>669</v>
-      </c>
-      <c r="C632" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="n">
-        <v>670</v>
-      </c>
-      <c r="C633" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="n">
-        <v>672</v>
-      </c>
-      <c r="C634" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="n">
-        <v>673</v>
-      </c>
-      <c r="C635" t="inlineStr">
-        <is>
-          <t>Venue</t>
-        </is>
-      </c>
-      <c r="D635" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>673</v>
-      </c>
-      <c r="C636" t="inlineStr">
-        <is>
-          <t>Authors</t>
-        </is>
-      </c>
-      <c r="D636" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>673</v>
-      </c>
-      <c r="C637" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>673</v>
-      </c>
-      <c r="C638" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D638" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>673</v>
-      </c>
-      <c r="C639" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>674</v>
-      </c>
-      <c r="C640" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D640" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>674</v>
-      </c>
-      <c r="C641" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D641" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>675</v>
-      </c>
-      <c r="C642" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D642" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>676</v>
-      </c>
-      <c r="C643" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>677</v>
-      </c>
-      <c r="C644" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D644" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="n">
-        <v>678</v>
-      </c>
-      <c r="C645" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D645" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="n">
-        <v>678</v>
-      </c>
-      <c r="C646" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D646" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="n">
-        <v>679</v>
-      </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>'NoneType' object does not support item assignment</t>
-        </is>
-      </c>
-      <c r="D647" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 258, in main
-    metadata = extract_with_link(row, already_extracted_files, web_scraper)
-               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
-  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 169, in extract_with_link
-    metadata['Link'] = url
-    ~~~~~~~~^^^^^^^^
-TypeError: 'NoneType' object does not support item assignment
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>680</v>
-      </c>
-      <c r="C648" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D648" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>682</v>
-      </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D649" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>682</v>
-      </c>
-      <c r="C650" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D650" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>684</v>
-      </c>
-      <c r="C651" t="inlineStr">
-        <is>
-          <t>Publisher</t>
-        </is>
-      </c>
-      <c r="D651" t="inlineStr">
         <is>
           <t>passed</t>
         </is>

--- a/Datasets/erreurs_999.xlsx
+++ b/Datasets/erreurs_999.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +69,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,73 +385,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>